--- a/DOC/Boat.xlsx
+++ b/DOC/Boat.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="меню" sheetId="1" r:id="rId1"/>
+    <sheet name="artikel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -2914,7 +2915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2924,7 +2925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D98" sqref="D98:D102"/>
     </sheetView>
   </sheetViews>
@@ -5985,4 +5986,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/Boat.xlsx
+++ b/DOC/Boat.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1138">
   <si>
     <t xml:space="preserve">Немецкий </t>
   </si>
@@ -952,22 +952,6 @@
     <t>Оценка продавца кассового аппарата и счета-фактуры</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Список </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>бомжей Реннера</t>
-    </r>
-  </si>
-  <si>
     <t>Расчет валовой выручки от общего объема продаж</t>
   </si>
   <si>
@@ -2492,9 +2476,6 @@
     <t>удаленное обслуживание</t>
   </si>
   <si>
-    <t>Renner bum list</t>
-  </si>
-  <si>
     <t>Аренда и выставление счетов</t>
   </si>
   <si>
@@ -2541,6 +2522,939 @@
   </si>
   <si>
     <t>Internet portals</t>
+  </si>
+  <si>
+    <t>Hauptdaten</t>
+  </si>
+  <si>
+    <t>Lieferant Nr</t>
+  </si>
+  <si>
+    <t>справочник</t>
+  </si>
+  <si>
+    <t>Herman Gotthardt Gmbh</t>
+  </si>
+  <si>
+    <t>Artikel Nr</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>Vergl. Nr</t>
+  </si>
+  <si>
+    <t>Warengr.</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>2. Zeile</t>
+  </si>
+  <si>
+    <t>тип</t>
+  </si>
+  <si>
+    <t>Lagerort</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Farbe</t>
+  </si>
+  <si>
+    <t>EAN Code</t>
+  </si>
+  <si>
+    <t>ASIN Code</t>
+  </si>
+  <si>
+    <t>Matchcode</t>
+  </si>
+  <si>
+    <t>Anlage</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Preise und Nachkalkulation</t>
+  </si>
+  <si>
+    <t>Kalk. Basis</t>
+  </si>
+  <si>
+    <t>Netto EK</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Aufschl. In %</t>
+  </si>
+  <si>
+    <t>Empf. VK</t>
+  </si>
+  <si>
+    <t>Netto</t>
+  </si>
+  <si>
+    <t>Ladenpreis</t>
+  </si>
+  <si>
+    <t>VK Preis 2</t>
+  </si>
+  <si>
+    <t>Fest Aufschlc %</t>
+  </si>
+  <si>
+    <t>Mittlerer EK</t>
+  </si>
+  <si>
+    <t>Preisupdate</t>
+  </si>
+  <si>
+    <t>Min Bestand</t>
+  </si>
+  <si>
+    <t>Nachhol-Mge.</t>
+  </si>
+  <si>
+    <t>Max Bestand</t>
+  </si>
+  <si>
+    <t>vollautom. Bestellung</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Best. Gruppe</t>
+  </si>
+  <si>
+    <t>Bestellmenge</t>
+  </si>
+  <si>
+    <t>Teileart:</t>
+  </si>
+  <si>
+    <t>Verp. Einh.</t>
+  </si>
+  <si>
+    <t>Rab. Gruppe</t>
+  </si>
+  <si>
+    <t>Etiketten</t>
+  </si>
+  <si>
+    <t>Kein Etikett</t>
+  </si>
+  <si>
+    <t>Bestand</t>
+  </si>
+  <si>
+    <t>Reserviert</t>
+  </si>
+  <si>
+    <t>Bild</t>
+  </si>
+  <si>
+    <t>Esc</t>
+  </si>
+  <si>
+    <t>Kalkulieren</t>
+  </si>
+  <si>
+    <t>Zurück</t>
+  </si>
+  <si>
+    <t>Vor</t>
+  </si>
+  <si>
+    <t>Kopieren</t>
+  </si>
+  <si>
+    <t>Clipboard</t>
+  </si>
+  <si>
+    <t>Main data</t>
+  </si>
+  <si>
+    <t>Supplier no</t>
+  </si>
+  <si>
+    <t>Herman Gotthardt GmbH</t>
+  </si>
+  <si>
+    <t>Article no</t>
+  </si>
+  <si>
+    <t>Compare No</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>designation</t>
+  </si>
+  <si>
+    <t>2nd line</t>
+  </si>
+  <si>
+    <t>Storage location</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>ASIN code</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>Основные данные</t>
+  </si>
+  <si>
+    <t>№ поставщика</t>
+  </si>
+  <si>
+    <t>Артикул №</t>
+  </si>
+  <si>
+    <t>Сравнить Нет</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>обозначение</t>
+  </si>
+  <si>
+    <t>2-я линия</t>
+  </si>
+  <si>
+    <t>Место хранения</t>
+  </si>
+  <si>
+    <t>размер</t>
+  </si>
+  <si>
+    <t>цвет</t>
+  </si>
+  <si>
+    <t>Код EAN</t>
+  </si>
+  <si>
+    <t>ASIN код</t>
+  </si>
+  <si>
+    <t>Код соответствия</t>
+  </si>
+  <si>
+    <t>вложение</t>
+  </si>
+  <si>
+    <t>Net purchase price</t>
+  </si>
+  <si>
+    <t>Surcharge In %</t>
+  </si>
+  <si>
+    <t>Recommended VK</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>Retail price</t>
+  </si>
+  <si>
+    <t>Retail price 2</t>
+  </si>
+  <si>
+    <t>Fixed surcharge%</t>
+  </si>
+  <si>
+    <t>Medium EK</t>
+  </si>
+  <si>
+    <t>Price update</t>
+  </si>
+  <si>
+    <t>Чистая цена покупки</t>
+  </si>
+  <si>
+    <t>Доплата В %</t>
+  </si>
+  <si>
+    <t>Рекомендуем ВК</t>
+  </si>
+  <si>
+    <t>Розничная цена</t>
+  </si>
+  <si>
+    <t>Розничная цена 2</t>
+  </si>
+  <si>
+    <t>Фиксированная надбавка%</t>
+  </si>
+  <si>
+    <t>Средний EK</t>
+  </si>
+  <si>
+    <t>Обновление цен</t>
+  </si>
+  <si>
+    <t>Цены и перерасчет</t>
+  </si>
+  <si>
+    <t>Prices and recalculation</t>
+  </si>
+  <si>
+    <t>Рассчитать базу</t>
+  </si>
+  <si>
+    <t>Calculate basis</t>
+  </si>
+  <si>
+    <t>нетто</t>
+  </si>
+  <si>
+    <t>Min inventory</t>
+  </si>
+  <si>
+    <t>Catch-up quantity</t>
+  </si>
+  <si>
+    <t>Max stock</t>
+  </si>
+  <si>
+    <t>fully automated ordering</t>
+  </si>
+  <si>
+    <t>Best group</t>
+  </si>
+  <si>
+    <t>Order quantity</t>
+  </si>
+  <si>
+    <t>Part type:</t>
+  </si>
+  <si>
+    <t>Pack An H.</t>
+  </si>
+  <si>
+    <t>Rab. Group</t>
+  </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t>No label</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Мин. Инвентарь</t>
+  </si>
+  <si>
+    <t>Догоняющее количество</t>
+  </si>
+  <si>
+    <t>Максимальный запас</t>
+  </si>
+  <si>
+    <t>полностью автоматизированный заказ</t>
+  </si>
+  <si>
+    <t>Лучшая группа</t>
+  </si>
+  <si>
+    <t>Количество заказа</t>
+  </si>
+  <si>
+    <t>Тип детали:</t>
+  </si>
+  <si>
+    <t>Упаковка H.</t>
+  </si>
+  <si>
+    <t>Раб. Группа</t>
+  </si>
+  <si>
+    <t>Этикетки</t>
+  </si>
+  <si>
+    <t>Без марки</t>
+  </si>
+  <si>
+    <t>Продолжительность</t>
+  </si>
+  <si>
+    <t>Зарезервированный</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Calculate</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>In front</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>образ</t>
+  </si>
+  <si>
+    <t>Рассчитать</t>
+  </si>
+  <si>
+    <t>Назад</t>
+  </si>
+  <si>
+    <t>Спереди</t>
+  </si>
+  <si>
+    <t>Копировать</t>
+  </si>
+  <si>
+    <t>Буфер обмена</t>
+  </si>
+  <si>
+    <t>1 страничка</t>
+  </si>
+  <si>
+    <t>2 страничка</t>
+  </si>
+  <si>
+    <t>Grunddaten</t>
+  </si>
+  <si>
+    <t>Basic data</t>
+  </si>
+  <si>
+    <t>ZusatzDaten</t>
+  </si>
+  <si>
+    <t>Langtext</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Zolltarif Nr</t>
+  </si>
+  <si>
+    <t>Lieferbar ab</t>
+  </si>
+  <si>
+    <t>Lieferzeit in Tagen</t>
+  </si>
+  <si>
+    <t>Ursprungsland</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Anmerkung 1</t>
+  </si>
+  <si>
+    <t>Anmerkung 2</t>
+  </si>
+  <si>
+    <t>Mvst. Schlüssel</t>
+  </si>
+  <si>
+    <t>Verk. Prämie</t>
+  </si>
+  <si>
+    <t>Menge / Einheit</t>
+  </si>
+  <si>
+    <t>Gewicht : (KG)</t>
+  </si>
+  <si>
+    <t>Auslauf-Kennz</t>
+  </si>
+  <si>
+    <t>in Bestellvorschl.</t>
+  </si>
+  <si>
+    <t>Lagerverw.</t>
+  </si>
+  <si>
+    <t>Sperren.</t>
+  </si>
+  <si>
+    <t>Rabattfähig</t>
+  </si>
+  <si>
+    <t>in Inventurbewert.:</t>
+  </si>
+  <si>
+    <t>Update über 1-6</t>
+  </si>
+  <si>
+    <t>weiteres</t>
+  </si>
+  <si>
+    <t>Serien. No für Gerät</t>
+  </si>
+  <si>
+    <t>Kundenzwang bei Barverkauf</t>
+  </si>
+  <si>
+    <t>Lieferbar</t>
+  </si>
+  <si>
+    <t>Kommissionsware</t>
+  </si>
+  <si>
+    <t>Additional data</t>
+  </si>
+  <si>
+    <t>Long text</t>
+  </si>
+  <si>
+    <t>customs fee number</t>
+  </si>
+  <si>
+    <t>Country of origin</t>
+  </si>
+  <si>
+    <t>Available from</t>
+  </si>
+  <si>
+    <t>Delivery time in days</t>
+  </si>
+  <si>
+    <t>Note 1</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>Дополнительная информация</t>
+  </si>
+  <si>
+    <t>Длинный текст</t>
+  </si>
+  <si>
+    <t>номер таможенной пошлины</t>
+  </si>
+  <si>
+    <t>Страна происхождения</t>
+  </si>
+  <si>
+    <t>Можно получить</t>
+  </si>
+  <si>
+    <t>Срок доставки в днях</t>
+  </si>
+  <si>
+    <t>Примечание 1</t>
+  </si>
+  <si>
+    <t>Примечание 2</t>
+  </si>
+  <si>
+    <t>Mvst. ключ</t>
+  </si>
+  <si>
+    <t>Премия с продаж</t>
+  </si>
+  <si>
+    <t>Единица измерения</t>
+  </si>
+  <si>
+    <t>Вес (кг)</t>
+  </si>
+  <si>
+    <t>Код отмены</t>
+  </si>
+  <si>
+    <t>в предложении заказа</t>
+  </si>
+  <si>
+    <t>Управление складом</t>
+  </si>
+  <si>
+    <t>Замок.</t>
+  </si>
+  <si>
+    <t>Со скидкой</t>
+  </si>
+  <si>
+    <t>при оценке запасов:</t>
+  </si>
+  <si>
+    <t>Обновление около 1-6</t>
+  </si>
+  <si>
+    <t>Mvst. key</t>
+  </si>
+  <si>
+    <t>Sales premium</t>
+  </si>
+  <si>
+    <t>Unit of measure</t>
+  </si>
+  <si>
+    <t>Weight: (KG)</t>
+  </si>
+  <si>
+    <t>Discontinuation code</t>
+  </si>
+  <si>
+    <t>in order proposal</t>
+  </si>
+  <si>
+    <t>Warehouse management</t>
+  </si>
+  <si>
+    <t>Lock.</t>
+  </si>
+  <si>
+    <t>Discountable</t>
+  </si>
+  <si>
+    <t>in inventory valuation:</t>
+  </si>
+  <si>
+    <t>Update about 1-6</t>
+  </si>
+  <si>
+    <t>additional</t>
+  </si>
+  <si>
+    <t>Series. No for device</t>
+  </si>
+  <si>
+    <t>Customer obligation for cash sales</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>Commission goods</t>
+  </si>
+  <si>
+    <t>дополнительный</t>
+  </si>
+  <si>
+    <t>Серии. Нет для устройства</t>
+  </si>
+  <si>
+    <t>Обязательства клиента по продажам за наличные</t>
+  </si>
+  <si>
+    <t>Доступный</t>
+  </si>
+  <si>
+    <t>Комиссионные товары</t>
+  </si>
+  <si>
+    <t>3 страничка</t>
+  </si>
+  <si>
+    <t>Internetshopdaten</t>
+  </si>
+  <si>
+    <t>text Nummer</t>
+  </si>
+  <si>
+    <t>Internet Rabatt</t>
+  </si>
+  <si>
+    <t>Biketeile</t>
+  </si>
+  <si>
+    <t>individuelle texte für die Übertragung in das Internet</t>
+  </si>
+  <si>
+    <t>Internet-Bezeichnung</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Bearbeiten</t>
+  </si>
+  <si>
+    <t>Vorshau</t>
+  </si>
+  <si>
+    <t>internetübergabe</t>
+  </si>
+  <si>
+    <t>Internet shop data</t>
+  </si>
+  <si>
+    <t>text number</t>
+  </si>
+  <si>
+    <t>internet handover</t>
+  </si>
+  <si>
+    <t>Internet discount</t>
+  </si>
+  <si>
+    <t>Bike parts</t>
+  </si>
+  <si>
+    <t>individual texts for transmission on the internet</t>
+  </si>
+  <si>
+    <t>Internet label</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>To edit</t>
+  </si>
+  <si>
+    <t>Данные интернет-магазина</t>
+  </si>
+  <si>
+    <t>текстовый номер</t>
+  </si>
+  <si>
+    <t>передача в интернет</t>
+  </si>
+  <si>
+    <t>Интернет-скидка</t>
+  </si>
+  <si>
+    <t>Запчасти для велосипедов</t>
+  </si>
+  <si>
+    <t>индивидуальные тексты для передачи в Интернете</t>
+  </si>
+  <si>
+    <t>Интернет-этикетка</t>
+  </si>
+  <si>
+    <t>язык</t>
+  </si>
+  <si>
+    <t>Редактировать</t>
+  </si>
+  <si>
+    <t>Список должников</t>
+  </si>
+  <si>
+    <t>List of debtors</t>
+  </si>
+  <si>
+    <t>предварительный просмотр</t>
+  </si>
+  <si>
+    <t>preview</t>
+  </si>
+  <si>
+    <t>4 страничка</t>
+  </si>
+  <si>
+    <t>VK-Daten/Bem</t>
+  </si>
+  <si>
+    <t>Anlagedatum</t>
+  </si>
+  <si>
+    <t>Letzte VK Buchung</t>
+  </si>
+  <si>
+    <t>Letzte WE Buchung</t>
+  </si>
+  <si>
+    <t>Gesamt Reserviert</t>
+  </si>
+  <si>
+    <t>Verkäufe (Filialen)</t>
+  </si>
+  <si>
+    <t>autom. Bemerkung beim verkauf</t>
+  </si>
+  <si>
+    <t>autom. Bemerkung beim Wareneingang</t>
+  </si>
+  <si>
+    <t>autom. Bemerkung beim Bestellen</t>
+  </si>
+  <si>
+    <t>Bei Bestellung drucken</t>
+  </si>
+  <si>
+    <t>VK-Daten / Bem</t>
+  </si>
+  <si>
+    <t>Gesamt reserviert</t>
+  </si>
+  <si>
+    <t>Filialen</t>
+  </si>
+  <si>
+    <t>autom. Bemerkung beim Verkauf</t>
+  </si>
+  <si>
+    <t>Bei gehört drucken</t>
+  </si>
+  <si>
+    <t>Данные ВК / примечание</t>
+  </si>
+  <si>
+    <t>Дата инвестирования</t>
+  </si>
+  <si>
+    <t>Последнее бронирование ВКонтакте</t>
+  </si>
+  <si>
+    <t>Последнее бронирование WE</t>
+  </si>
+  <si>
+    <t>Всего зарезервировано</t>
+  </si>
+  <si>
+    <t>Продажи (филиалы)</t>
+  </si>
+  <si>
+    <t>автом. Замечание при продаже</t>
+  </si>
+  <si>
+    <t>автом. Комментировать поступающие товары</t>
+  </si>
+  <si>
+    <t>автом. Обратите внимание при заказе</t>
+  </si>
+  <si>
+    <t>Распечатать при заказе</t>
+  </si>
+  <si>
+    <t>страничка</t>
+  </si>
+  <si>
+    <t>Documente / Bilder</t>
+  </si>
+  <si>
+    <t>Bilder / Documente</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>Anzeigen</t>
+  </si>
+  <si>
+    <t>Öffnen</t>
+  </si>
+  <si>
+    <t>Neu</t>
+  </si>
+  <si>
+    <t>Entfernen</t>
+  </si>
+  <si>
+    <t>Dateien können auch mit Drag u.</t>
+  </si>
+  <si>
+    <t>Drop hierher gezogen werden</t>
+  </si>
+  <si>
+    <t>Documents / images</t>
+  </si>
+  <si>
+    <t>Pictures / documents</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Show</t>
+  </si>
+  <si>
+    <t>to open</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Files can also be dragged and dropped.</t>
+  </si>
+  <si>
+    <t>Drop to be dragged here</t>
+  </si>
+  <si>
+    <t>Документы / изображения</t>
+  </si>
+  <si>
+    <t>Фотографии / документы</t>
+  </si>
+  <si>
+    <t>Предметы</t>
+  </si>
+  <si>
+    <t>файл</t>
+  </si>
+  <si>
+    <t>открыть</t>
+  </si>
+  <si>
+    <t>Новый</t>
+  </si>
+  <si>
+    <t>удалять</t>
+  </si>
+  <si>
+    <t>Файлы также можно перетаскивать.</t>
+  </si>
+  <si>
+    <t>Перетащите сюда</t>
+  </si>
+  <si>
+    <t>просмотр</t>
+  </si>
+  <si>
+    <t>Weitere Infos</t>
+  </si>
+  <si>
+    <t>Weitere Lagerorte</t>
+  </si>
+  <si>
+    <t>Дальнейшая информация</t>
+  </si>
+  <si>
+    <t>Другие места хранения</t>
+  </si>
+  <si>
+    <t>Further information</t>
+  </si>
+  <si>
+    <t>Other storage locations</t>
   </si>
 </sst>
 </file>
@@ -2573,20 +3487,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <color rgb="FF777777"/>
+      <name val="Roboto"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2601,7 +3519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2609,6 +3527,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2925,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D98" sqref="D98:D102"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,7 +3887,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2980,7 +3901,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -2994,7 +3915,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3008,7 +3929,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -3022,7 +3943,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3036,7 +3957,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3050,7 +3971,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -3064,7 +3985,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3078,7 +3999,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -3092,7 +4013,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -3106,7 +4027,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -3120,7 +4041,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -3134,7 +4055,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -3148,7 +4069,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -3177,7 +4098,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
@@ -3192,7 +4113,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
@@ -3207,7 +4128,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
@@ -3222,7 +4143,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -3237,7 +4158,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B23" t="s">
         <v>52</v>
@@ -3252,7 +4173,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
@@ -3283,7 +4204,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B27" t="s">
         <v>55</v>
@@ -3315,7 +4236,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
@@ -3331,7 +4252,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
@@ -3347,7 +4268,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -3363,7 +4284,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B33" t="s">
         <v>60</v>
@@ -3379,7 +4300,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B34" t="s">
         <v>61</v>
@@ -3395,21 +4316,21 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>442</v>
+      </c>
+      <c r="B35" t="s">
         <v>443</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>444</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>445</v>
-      </c>
-      <c r="F35" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
@@ -3425,7 +4346,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -3456,7 +4377,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -3472,7 +4393,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
@@ -3488,7 +4409,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
@@ -3504,7 +4425,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B43" t="s">
         <v>68</v>
@@ -3520,7 +4441,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
@@ -3536,7 +4457,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
@@ -3552,35 +4473,35 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" t="s">
         <v>447</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>448</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>449</v>
-      </c>
-      <c r="F46" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47" t="s">
         <v>451</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D47" t="s">
         <v>452</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F47" t="s">
         <v>453</v>
-      </c>
-      <c r="F47" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B48" t="s">
         <v>71</v>
@@ -3596,7 +4517,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B49" t="s">
         <v>72</v>
@@ -3612,119 +4533,119 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" t="s">
         <v>455</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>456</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>457</v>
-      </c>
-      <c r="F50" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B51" t="s">
         <v>459</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>460</v>
       </c>
-      <c r="D51" t="s">
+      <c r="F51" t="s">
         <v>461</v>
-      </c>
-      <c r="F51" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B52" t="s">
         <v>463</v>
       </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>464</v>
       </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>465</v>
-      </c>
-      <c r="F52" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B53" t="s">
         <v>467</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>468</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>469</v>
-      </c>
-      <c r="F53" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" t="s">
         <v>471</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>472</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>473</v>
-      </c>
-      <c r="F54" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B55" t="s">
         <v>475</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>476</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>477</v>
-      </c>
-      <c r="F55" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B56" t="s">
         <v>479</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>480</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>481</v>
-      </c>
-      <c r="F56" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B57" t="s">
         <v>483</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>484</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>485</v>
-      </c>
-      <c r="F57" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B58" t="s">
         <v>73</v>
@@ -3740,7 +4661,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B59" t="s">
         <v>74</v>
@@ -3762,7 +4683,7 @@
         <v>75</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>246</v>
@@ -3770,13 +4691,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B62" t="s">
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>237</v>
@@ -3784,13 +4705,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B63" t="s">
         <v>77</v>
       </c>
       <c r="D63" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>238</v>
@@ -3798,13 +4719,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B64" t="s">
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>239</v>
@@ -3812,13 +4733,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B65" t="s">
         <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>240</v>
@@ -3826,13 +4747,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>241</v>
@@ -3840,13 +4761,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B67" t="s">
         <v>81</v>
       </c>
       <c r="D67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>242</v>
@@ -3854,13 +4775,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B68" t="s">
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>247</v>
@@ -3868,83 +4789,83 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B69" t="s">
         <v>487</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>488</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>489</v>
-      </c>
-      <c r="F69" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B70" t="s">
         <v>491</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D70" t="s">
         <v>492</v>
       </c>
-      <c r="D70" t="s">
+      <c r="F70" t="s">
         <v>493</v>
-      </c>
-      <c r="F70" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B71" t="s">
         <v>495</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
         <v>496</v>
       </c>
-      <c r="D71" t="s">
+      <c r="F71" t="s">
         <v>497</v>
-      </c>
-      <c r="F71" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B72" t="s">
         <v>499</v>
       </c>
-      <c r="B72" t="s">
+      <c r="D72" t="s">
         <v>500</v>
       </c>
-      <c r="D72" t="s">
+      <c r="F72" t="s">
         <v>501</v>
-      </c>
-      <c r="F72" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B73" t="s">
         <v>503</v>
       </c>
-      <c r="B73" t="s">
+      <c r="D73" t="s">
         <v>504</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>505</v>
-      </c>
-      <c r="F73" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B74" t="s">
         <v>83</v>
       </c>
       <c r="D74" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>243</v>
@@ -3952,13 +4873,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B75" t="s">
         <v>84</v>
       </c>
       <c r="D75" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>272</v>
@@ -3966,13 +4887,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B76" t="s">
         <v>85</v>
       </c>
       <c r="D76" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>244</v>
@@ -3980,13 +4901,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B77" t="s">
         <v>86</v>
       </c>
       <c r="D77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>245</v>
@@ -4003,7 +4924,7 @@
         <v>87</v>
       </c>
       <c r="D79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>258</v>
@@ -4011,13 +4932,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B80" t="s">
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>248</v>
@@ -4025,13 +4946,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B81" t="s">
         <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>249</v>
@@ -4039,13 +4960,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B82" t="s">
         <v>89</v>
       </c>
       <c r="D82" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>250</v>
@@ -4053,13 +4974,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B83" t="s">
         <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>251</v>
@@ -4067,13 +4988,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B84" t="s">
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>252</v>
@@ -4081,13 +5002,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B85" t="s">
         <v>93</v>
       </c>
       <c r="D85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>259</v>
@@ -4095,173 +5016,173 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B86" t="s">
         <v>507</v>
       </c>
-      <c r="B86" t="s">
+      <c r="D86" t="s">
         <v>508</v>
       </c>
-      <c r="D86" t="s">
+      <c r="F86" t="s">
         <v>509</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>510</v>
-      </c>
-      <c r="G86" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B87" t="s">
         <v>512</v>
       </c>
-      <c r="B87" t="s">
+      <c r="D87" t="s">
         <v>513</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>514</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>515</v>
-      </c>
-      <c r="G87" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B88" t="s">
         <v>517</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
         <v>518</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>519</v>
-      </c>
-      <c r="F88" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B89" t="s">
         <v>521</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D89" t="s">
         <v>522</v>
       </c>
-      <c r="D89" t="s">
+      <c r="F89" t="s">
         <v>523</v>
-      </c>
-      <c r="F89" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B90" t="s">
         <v>525</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D90" t="s">
         <v>526</v>
       </c>
-      <c r="D90" t="s">
+      <c r="F90" t="s">
         <v>527</v>
-      </c>
-      <c r="F90" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B91" t="s">
         <v>529</v>
       </c>
-      <c r="B91" t="s">
+      <c r="D91" t="s">
         <v>530</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>531</v>
-      </c>
-      <c r="F91" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B92" t="s">
         <v>533</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D92" t="s">
         <v>534</v>
       </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
         <v>535</v>
-      </c>
-      <c r="F92" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B93" t="s">
         <v>537</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
         <v>538</v>
       </c>
-      <c r="D93" t="s">
+      <c r="F93" t="s">
         <v>539</v>
-      </c>
-      <c r="F93" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" t="s">
         <v>541</v>
       </c>
-      <c r="B94" t="s">
+      <c r="D94" t="s">
         <v>542</v>
       </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>543</v>
-      </c>
-      <c r="F94" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B95" t="s">
         <v>545</v>
       </c>
-      <c r="B95" t="s">
+      <c r="D95" t="s">
         <v>546</v>
       </c>
-      <c r="D95" t="s">
+      <c r="F95" t="s">
         <v>547</v>
-      </c>
-      <c r="F95" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B96" t="s">
         <v>549</v>
       </c>
-      <c r="B96" t="s">
+      <c r="D96" t="s">
         <v>550</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>551</v>
-      </c>
-      <c r="F96" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B97" t="s">
         <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>260</v>
@@ -4269,83 +5190,83 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="B98" t="s">
         <v>766</v>
       </c>
-      <c r="B98" t="s">
-        <v>767</v>
-      </c>
       <c r="D98" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F98" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D99" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F99" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B100" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D100" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F100" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B101" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D101" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F101" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B102" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D102" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F102" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B103" t="s">
         <v>95</v>
       </c>
       <c r="D103" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>253</v>
@@ -4353,13 +5274,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B104" t="s">
         <v>95</v>
       </c>
       <c r="D104" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>253</v>
@@ -4367,27 +5288,27 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B105" t="s">
         <v>777</v>
       </c>
-      <c r="B105" t="s">
-        <v>778</v>
-      </c>
       <c r="D105" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F105" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B106" t="s">
         <v>96</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>254</v>
@@ -4395,13 +5316,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B107" t="s">
         <v>97</v>
       </c>
       <c r="D107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="2" t="s">
@@ -4410,41 +5331,41 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B108" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D108" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F108" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B109" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D109" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F109" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B110" t="s">
         <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="1" t="s">
@@ -4453,13 +5374,13 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B111" t="s">
         <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E111" s="3"/>
       <c r="F111" s="1" t="s">
@@ -4474,7 +5395,7 @@
         <v>100</v>
       </c>
       <c r="D113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="2" t="s">
@@ -4483,13 +5404,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B114" t="s">
         <v>101</v>
       </c>
       <c r="D114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="1" t="s">
@@ -4498,13 +5419,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B115" t="s">
         <v>102</v>
       </c>
       <c r="D115" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E115" s="3"/>
       <c r="F115" s="1" t="s">
@@ -4513,13 +5434,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B116" t="s">
         <v>103</v>
       </c>
       <c r="D116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="2" t="s">
@@ -4528,13 +5449,13 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B117" t="s">
         <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="2" t="s">
@@ -4543,41 +5464,41 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B118" t="s">
         <v>553</v>
       </c>
-      <c r="B118" t="s">
+      <c r="D118" t="s">
         <v>554</v>
       </c>
-      <c r="D118" t="s">
+      <c r="F118" t="s">
         <v>555</v>
-      </c>
-      <c r="F118" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B119" t="s">
         <v>557</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
         <v>558</v>
       </c>
-      <c r="D119" t="s">
+      <c r="F119" t="s">
         <v>559</v>
-      </c>
-      <c r="F119" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B120" t="s">
         <v>105</v>
       </c>
       <c r="D120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="1" t="s">
@@ -4586,13 +5507,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B121" t="s">
         <v>106</v>
       </c>
       <c r="D121" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="2" t="s">
@@ -4601,13 +5522,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B122" t="s">
         <v>107</v>
       </c>
       <c r="D122" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="2" t="s">
@@ -4616,13 +5537,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B123" t="s">
         <v>108</v>
       </c>
       <c r="D123" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="1" t="s">
@@ -4631,13 +5552,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B124" t="s">
         <v>109</v>
       </c>
       <c r="D124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E124" s="3"/>
       <c r="F124" s="1" t="s">
@@ -4646,13 +5567,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B125" t="s">
         <v>110</v>
       </c>
       <c r="D125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="2" t="s">
@@ -4661,13 +5582,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B126" t="s">
         <v>111</v>
       </c>
       <c r="D126" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="1" t="s">
@@ -4682,7 +5603,7 @@
         <v>112</v>
       </c>
       <c r="D128" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>274</v>
@@ -4690,13 +5611,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B129" t="s">
         <v>113</v>
       </c>
       <c r="D129" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>275</v>
@@ -4704,105 +5625,105 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B130" t="s">
         <v>561</v>
       </c>
-      <c r="B130" t="s">
+      <c r="D130" t="s">
         <v>562</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>563</v>
-      </c>
-      <c r="F130" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B131" t="s">
         <v>565</v>
       </c>
-      <c r="B131" t="s">
+      <c r="D131" t="s">
         <v>566</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>567</v>
-      </c>
-      <c r="F131" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B132" t="s">
         <v>569</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D132" t="s">
         <v>570</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>571</v>
-      </c>
-      <c r="F132" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B133" t="s">
         <v>573</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>574</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>575</v>
-      </c>
-      <c r="F133" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B134" t="s">
         <v>577</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>578</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>579</v>
-      </c>
-      <c r="F134" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B135" t="s">
         <v>581</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>582</v>
       </c>
-      <c r="D135" t="s">
+      <c r="F135" t="s">
         <v>583</v>
-      </c>
-      <c r="F135" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="B136" t="s">
         <v>585</v>
       </c>
-      <c r="B136" t="s">
+      <c r="D136" t="s">
         <v>586</v>
       </c>
-      <c r="D136" t="s">
+      <c r="F136" t="s">
         <v>587</v>
-      </c>
-      <c r="F136" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B137" t="s">
         <v>70</v>
@@ -4816,41 +5737,41 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B138" t="s">
         <v>590</v>
       </c>
-      <c r="B138" t="s">
+      <c r="D138" t="s">
         <v>591</v>
       </c>
-      <c r="D138" t="s">
+      <c r="F138" t="s">
         <v>592</v>
-      </c>
-      <c r="F138" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B139" t="s">
         <v>594</v>
       </c>
-      <c r="B139" t="s">
+      <c r="D139" t="s">
         <v>595</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>596</v>
-      </c>
-      <c r="F139" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B140" t="s">
         <v>114</v>
       </c>
       <c r="D140" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>276</v>
@@ -4858,13 +5779,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B141" t="s">
         <v>115</v>
       </c>
       <c r="D141" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>277</v>
@@ -4872,69 +5793,69 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="B142" t="s">
         <v>598</v>
       </c>
-      <c r="B142" t="s">
+      <c r="D142" t="s">
         <v>599</v>
       </c>
-      <c r="D142" t="s">
+      <c r="F142" t="s">
         <v>600</v>
-      </c>
-      <c r="F142" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="B143" t="s">
         <v>602</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
         <v>603</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>604</v>
-      </c>
-      <c r="F143" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="B144" t="s">
         <v>606</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
         <v>607</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>608</v>
-      </c>
-      <c r="F144" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="B145" t="s">
         <v>610</v>
       </c>
-      <c r="B145" t="s">
+      <c r="D145" t="s">
         <v>611</v>
       </c>
-      <c r="D145" t="s">
+      <c r="F145" t="s">
         <v>612</v>
-      </c>
-      <c r="F145" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B146" t="s">
         <v>116</v>
       </c>
       <c r="D146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F146" t="s">
         <v>278</v>
@@ -4942,13 +5863,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B147" t="s">
         <v>116</v>
       </c>
       <c r="D147" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F147" t="s">
         <v>278</v>
@@ -4956,167 +5877,167 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="B148" t="s">
         <v>615</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>616</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>617</v>
-      </c>
-      <c r="F148" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="B149" t="s">
         <v>619</v>
       </c>
-      <c r="B149" t="s">
+      <c r="D149" t="s">
         <v>620</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
         <v>621</v>
-      </c>
-      <c r="F149" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B150" t="s">
         <v>623</v>
       </c>
-      <c r="B150" t="s">
+      <c r="D150" t="s">
         <v>624</v>
       </c>
-      <c r="D150" t="s">
+      <c r="F150" t="s">
         <v>625</v>
-      </c>
-      <c r="F150" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B151" t="s">
         <v>627</v>
       </c>
-      <c r="B151" t="s">
+      <c r="D151" t="s">
         <v>628</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>629</v>
-      </c>
-      <c r="F151" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B152" t="s">
         <v>631</v>
       </c>
-      <c r="B152" t="s">
+      <c r="D152" t="s">
         <v>632</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
         <v>633</v>
-      </c>
-      <c r="F152" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="B153" t="s">
         <v>635</v>
       </c>
-      <c r="B153" t="s">
+      <c r="D153" t="s">
         <v>636</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>637</v>
-      </c>
-      <c r="F153" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B154" t="s">
         <v>639</v>
       </c>
-      <c r="B154" t="s">
+      <c r="D154" t="s">
         <v>640</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>641</v>
-      </c>
-      <c r="F154" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="B155" t="s">
         <v>643</v>
       </c>
-      <c r="B155" t="s">
+      <c r="D155" t="s">
         <v>644</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>645</v>
-      </c>
-      <c r="F155" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B156" t="s">
         <v>647</v>
       </c>
-      <c r="B156" t="s">
+      <c r="D156" t="s">
         <v>648</v>
       </c>
-      <c r="D156" t="s">
+      <c r="F156" t="s">
         <v>649</v>
-      </c>
-      <c r="F156" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="B157" t="s">
         <v>651</v>
       </c>
-      <c r="B157" t="s">
+      <c r="D157" t="s">
         <v>652</v>
       </c>
-      <c r="D157" t="s">
+      <c r="F157" t="s">
         <v>653</v>
-      </c>
-      <c r="F157" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B158" t="s">
         <v>655</v>
       </c>
-      <c r="B158" t="s">
+      <c r="D158" t="s">
         <v>656</v>
       </c>
-      <c r="D158" t="s">
+      <c r="F158" t="s">
         <v>657</v>
-      </c>
-      <c r="F158" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B159" t="s">
         <v>117</v>
       </c>
       <c r="D159" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F159" t="s">
         <v>279</v>
@@ -5124,13 +6045,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B160" t="s">
         <v>118</v>
       </c>
       <c r="D160" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F160" t="s">
         <v>280</v>
@@ -5138,13 +6059,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
       </c>
       <c r="D161" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F161" t="s">
         <v>281</v>
@@ -5152,13 +6073,13 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B162" t="s">
         <v>120</v>
       </c>
       <c r="D162" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F162" t="s">
         <v>282</v>
@@ -5166,13 +6087,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B163" t="s">
         <v>121</v>
       </c>
       <c r="D163" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F163" t="s">
         <v>283</v>
@@ -5180,41 +6101,41 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="B164" t="s">
         <v>659</v>
       </c>
-      <c r="B164" t="s">
+      <c r="D164" t="s">
         <v>660</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>661</v>
-      </c>
-      <c r="F164" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="B165" t="s">
         <v>663</v>
       </c>
-      <c r="B165" t="s">
+      <c r="D165" t="s">
         <v>664</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
         <v>665</v>
-      </c>
-      <c r="F165" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B166" t="s">
         <v>122</v>
       </c>
       <c r="D166" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F166" t="s">
         <v>284</v>
@@ -5222,13 +6143,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B167" t="s">
         <v>123</v>
       </c>
       <c r="D167" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F167" t="s">
         <v>285</v>
@@ -5236,13 +6157,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B168" t="s">
         <v>124</v>
       </c>
       <c r="D168" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F168" t="s">
         <v>286</v>
@@ -5250,13 +6171,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B169" t="s">
         <v>125</v>
       </c>
       <c r="D169" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F169" t="s">
         <v>287</v>
@@ -5264,13 +6185,13 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B170" t="s">
         <v>126</v>
       </c>
       <c r="D170" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F170" t="s">
         <v>288</v>
@@ -5278,13 +6199,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B171" t="s">
         <v>127</v>
       </c>
       <c r="D171" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F171" t="s">
         <v>289</v>
@@ -5292,13 +6213,13 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B172" t="s">
         <v>128</v>
       </c>
       <c r="D172" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F172" t="s">
         <v>290</v>
@@ -5306,13 +6227,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B173" t="s">
         <v>129</v>
       </c>
       <c r="D173" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F173" t="s">
         <v>291</v>
@@ -5320,13 +6241,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B174" t="s">
         <v>130</v>
       </c>
       <c r="D174" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F174" t="s">
         <v>292</v>
@@ -5340,7 +6261,7 @@
         <v>151</v>
       </c>
       <c r="D176" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F176" t="s">
         <v>293</v>
@@ -5348,27 +6269,27 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B177" t="s">
         <v>132</v>
       </c>
       <c r="D177" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B178" t="s">
         <v>133</v>
       </c>
       <c r="D178" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F178" t="s">
         <v>294</v>
@@ -5376,13 +6297,13 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B179" t="s">
         <v>134</v>
       </c>
       <c r="D179" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F179" t="s">
         <v>295</v>
@@ -5390,13 +6311,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B180" t="s">
         <v>135</v>
       </c>
       <c r="D180" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F180" t="s">
         <v>296</v>
@@ -5404,13 +6325,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B181" t="s">
         <v>136</v>
       </c>
       <c r="D181" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F181" t="s">
         <v>297</v>
@@ -5418,13 +6339,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B182" t="s">
         <v>137</v>
       </c>
       <c r="D182" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F182" t="s">
         <v>298</v>
@@ -5432,13 +6353,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B183" t="s">
         <v>138</v>
       </c>
       <c r="D183" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F183" t="s">
         <v>299</v>
@@ -5446,13 +6367,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B184" t="s">
         <v>139</v>
       </c>
       <c r="D184" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F184" t="s">
         <v>300</v>
@@ -5460,13 +6381,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B185" t="s">
         <v>140</v>
       </c>
       <c r="D185" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F185" t="s">
         <v>301</v>
@@ -5474,13 +6395,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B186" t="s">
         <v>141</v>
       </c>
       <c r="D186" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F186" t="s">
         <v>302</v>
@@ -5488,100 +6409,100 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B187" t="s">
         <v>142</v>
       </c>
       <c r="D187" t="s">
-        <v>812</v>
+        <v>1073</v>
       </c>
       <c r="F187" t="s">
-        <v>303</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B188" t="s">
         <v>143</v>
       </c>
       <c r="D188" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F188" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B189" t="s">
         <v>144</v>
       </c>
       <c r="D189" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F189" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B190" t="s">
         <v>145</v>
       </c>
       <c r="D190" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F190" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B191" t="s">
         <v>146</v>
       </c>
       <c r="D191" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F191" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B192" t="s">
         <v>147</v>
       </c>
       <c r="D192" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B193" t="s">
         <v>148</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F193" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5592,253 +6513,253 @@
         <v>150</v>
       </c>
       <c r="D195" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F195" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B196" t="s">
         <v>152</v>
       </c>
       <c r="D196" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F196" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B197" t="s">
         <v>153</v>
       </c>
       <c r="D197" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F197" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B198" t="s">
         <v>154</v>
       </c>
       <c r="D198" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F198" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B199" t="s">
         <v>155</v>
       </c>
       <c r="D199" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F199" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B200" t="s">
         <v>156</v>
       </c>
       <c r="D200" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F200" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B201" t="s">
         <v>157</v>
       </c>
       <c r="D201" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F201" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B202" t="s">
         <v>158</v>
       </c>
       <c r="D202" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F202" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B203" t="s">
         <v>159</v>
       </c>
       <c r="D203" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F203" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B204" t="s">
         <v>160</v>
       </c>
       <c r="D204" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F204" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B205" t="s">
         <v>161</v>
       </c>
       <c r="D205" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F205" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B206" t="s">
         <v>162</v>
       </c>
       <c r="D206" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F206" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B207" t="s">
         <v>163</v>
       </c>
       <c r="D207" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F207" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B208" t="s">
         <v>164</v>
       </c>
       <c r="D208" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B209" t="s">
         <v>165</v>
       </c>
       <c r="D209" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F209" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B210" t="s">
         <v>166</v>
       </c>
       <c r="D210" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B211" t="s">
         <v>167</v>
       </c>
       <c r="D211" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F211" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B212" t="s">
         <v>168</v>
       </c>
       <c r="D212" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F212" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B213" t="s">
         <v>169</v>
@@ -5847,7 +6768,7 @@
         <v>169</v>
       </c>
       <c r="F213" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5855,10 +6776,10 @@
         <v>170</v>
       </c>
       <c r="D215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F215" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5866,10 +6787,10 @@
         <v>171</v>
       </c>
       <c r="D216" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F216" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5877,10 +6798,10 @@
         <v>172</v>
       </c>
       <c r="D217" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F217" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5888,10 +6809,10 @@
         <v>173</v>
       </c>
       <c r="D218" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F218" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5899,21 +6820,21 @@
         <v>174</v>
       </c>
       <c r="D219" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F219" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
+        <v>808</v>
+      </c>
+      <c r="D220" t="s">
         <v>809</v>
       </c>
-      <c r="D220" t="s">
+      <c r="F220" t="s">
         <v>810</v>
-      </c>
-      <c r="F220" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5921,10 +6842,10 @@
         <v>175</v>
       </c>
       <c r="D221" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F221" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,10 +6853,10 @@
         <v>176</v>
       </c>
       <c r="D222" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F222" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5943,10 +6864,10 @@
         <v>177</v>
       </c>
       <c r="D223" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F223" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,10 +6875,10 @@
         <v>178</v>
       </c>
       <c r="D224" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F224" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
@@ -5965,10 +6886,10 @@
         <v>179</v>
       </c>
       <c r="D225" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F225" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
@@ -5976,10 +6897,10 @@
         <v>180</v>
       </c>
       <c r="D226" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5990,14 +6911,1417 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114:E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="G2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E3" t="s">
+        <v>879</v>
+      </c>
+      <c r="G3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>828</v>
+      </c>
+      <c r="C4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E4" t="s">
+        <v>880</v>
+      </c>
+      <c r="G4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E6" t="s">
+        <v>882</v>
+      </c>
+      <c r="G6" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>833</v>
+      </c>
+      <c r="C7" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" t="s">
+        <v>883</v>
+      </c>
+      <c r="G7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E8" t="s">
+        <v>884</v>
+      </c>
+      <c r="G8" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E9" t="s">
+        <v>885</v>
+      </c>
+      <c r="G9" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>836</v>
+      </c>
+      <c r="C10" t="s">
+        <v>832</v>
+      </c>
+      <c r="E10" t="s">
+        <v>886</v>
+      </c>
+      <c r="G10" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C11" t="s">
+        <v>829</v>
+      </c>
+      <c r="E11" t="s">
+        <v>887</v>
+      </c>
+      <c r="G11" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C12" t="s">
+        <v>832</v>
+      </c>
+      <c r="E12" t="s">
+        <v>888</v>
+      </c>
+      <c r="G12" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>840</v>
+      </c>
+      <c r="C13" t="s">
+        <v>832</v>
+      </c>
+      <c r="E13" t="s">
+        <v>889</v>
+      </c>
+      <c r="G13" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>841</v>
+      </c>
+      <c r="C14" t="s">
+        <v>832</v>
+      </c>
+      <c r="E14" t="s">
+        <v>841</v>
+      </c>
+      <c r="G14" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>842</v>
+      </c>
+      <c r="C15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E15" t="s">
+        <v>890</v>
+      </c>
+      <c r="G15" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>843</v>
+      </c>
+      <c r="C16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E16" t="s">
+        <v>843</v>
+      </c>
+      <c r="G16" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>844</v>
+      </c>
+      <c r="C17" t="s">
+        <v>845</v>
+      </c>
+      <c r="E17" t="s">
+        <v>891</v>
+      </c>
+      <c r="G17" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E19" t="s">
+        <v>924</v>
+      </c>
+      <c r="G19" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>847</v>
+      </c>
+      <c r="C20" t="s">
+        <v>829</v>
+      </c>
+      <c r="E20" t="s">
+        <v>926</v>
+      </c>
+      <c r="G20" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>848</v>
+      </c>
+      <c r="C21" t="s">
+        <v>849</v>
+      </c>
+      <c r="E21" t="s">
+        <v>906</v>
+      </c>
+      <c r="G21" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>850</v>
+      </c>
+      <c r="C22" t="s">
+        <v>849</v>
+      </c>
+      <c r="E22" t="s">
+        <v>907</v>
+      </c>
+      <c r="G22" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>851</v>
+      </c>
+      <c r="C23" t="s">
+        <v>849</v>
+      </c>
+      <c r="E23" t="s">
+        <v>908</v>
+      </c>
+      <c r="G23" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>852</v>
+      </c>
+      <c r="C24" t="s">
+        <v>849</v>
+      </c>
+      <c r="E24" t="s">
+        <v>909</v>
+      </c>
+      <c r="G24" t="s">
+        <v>927</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>853</v>
+      </c>
+      <c r="C25" t="s">
+        <v>849</v>
+      </c>
+      <c r="E25" t="s">
+        <v>910</v>
+      </c>
+      <c r="G25" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>854</v>
+      </c>
+      <c r="C26" t="s">
+        <v>849</v>
+      </c>
+      <c r="E26" t="s">
+        <v>911</v>
+      </c>
+      <c r="G26" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>855</v>
+      </c>
+      <c r="C27" t="s">
+        <v>849</v>
+      </c>
+      <c r="E27" t="s">
+        <v>912</v>
+      </c>
+      <c r="G27" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>856</v>
+      </c>
+      <c r="C28" t="s">
+        <v>849</v>
+      </c>
+      <c r="E28" t="s">
+        <v>913</v>
+      </c>
+      <c r="G28" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>857</v>
+      </c>
+      <c r="C29" t="s">
+        <v>845</v>
+      </c>
+      <c r="E29" t="s">
+        <v>914</v>
+      </c>
+      <c r="G29" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>858</v>
+      </c>
+      <c r="C31" t="s">
+        <v>849</v>
+      </c>
+      <c r="E31" t="s">
+        <v>928</v>
+      </c>
+      <c r="G31" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>859</v>
+      </c>
+      <c r="C32" t="s">
+        <v>849</v>
+      </c>
+      <c r="E32" t="s">
+        <v>929</v>
+      </c>
+      <c r="G32" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>860</v>
+      </c>
+      <c r="C33" t="s">
+        <v>849</v>
+      </c>
+      <c r="E33" t="s">
+        <v>930</v>
+      </c>
+      <c r="G33" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>861</v>
+      </c>
+      <c r="C34" t="s">
+        <v>862</v>
+      </c>
+      <c r="E34" t="s">
+        <v>931</v>
+      </c>
+      <c r="G34" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>863</v>
+      </c>
+      <c r="C35" t="s">
+        <v>832</v>
+      </c>
+      <c r="E35" t="s">
+        <v>932</v>
+      </c>
+      <c r="G35" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>864</v>
+      </c>
+      <c r="C36" t="s">
+        <v>849</v>
+      </c>
+      <c r="E36" t="s">
+        <v>933</v>
+      </c>
+      <c r="G36" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>865</v>
+      </c>
+      <c r="C37" t="s">
+        <v>832</v>
+      </c>
+      <c r="E37" t="s">
+        <v>934</v>
+      </c>
+      <c r="G37" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>866</v>
+      </c>
+      <c r="C38" t="s">
+        <v>849</v>
+      </c>
+      <c r="E38" t="s">
+        <v>935</v>
+      </c>
+      <c r="G38" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>867</v>
+      </c>
+      <c r="C39" t="s">
+        <v>849</v>
+      </c>
+      <c r="E39" t="s">
+        <v>936</v>
+      </c>
+      <c r="G39" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>868</v>
+      </c>
+      <c r="C40" t="s">
+        <v>829</v>
+      </c>
+      <c r="E40" t="s">
+        <v>937</v>
+      </c>
+      <c r="G40" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>869</v>
+      </c>
+      <c r="E41" t="s">
+        <v>938</v>
+      </c>
+      <c r="G41" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>870</v>
+      </c>
+      <c r="C42" t="s">
+        <v>849</v>
+      </c>
+      <c r="E42" t="s">
+        <v>939</v>
+      </c>
+      <c r="G42" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>871</v>
+      </c>
+      <c r="C43" t="s">
+        <v>849</v>
+      </c>
+      <c r="E43" t="s">
+        <v>940</v>
+      </c>
+      <c r="G43" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>872</v>
+      </c>
+      <c r="E45" t="s">
+        <v>954</v>
+      </c>
+      <c r="G45" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>873</v>
+      </c>
+      <c r="E46" t="s">
+        <v>873</v>
+      </c>
+      <c r="G46" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>874</v>
+      </c>
+      <c r="E47" t="s">
+        <v>955</v>
+      </c>
+      <c r="G47" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>875</v>
+      </c>
+      <c r="E48" t="s">
+        <v>956</v>
+      </c>
+      <c r="G48" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>876</v>
+      </c>
+      <c r="E49" t="s">
+        <v>957</v>
+      </c>
+      <c r="G49" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>877</v>
+      </c>
+      <c r="E50" t="s">
+        <v>958</v>
+      </c>
+      <c r="G50" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>878</v>
+      </c>
+      <c r="E51" t="s">
+        <v>878</v>
+      </c>
+      <c r="G51" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>966</v>
+      </c>
+      <c r="B53" t="s">
+        <v>969</v>
+      </c>
+      <c r="E53" t="s">
+        <v>995</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>970</v>
+      </c>
+      <c r="C54" t="s">
+        <v>971</v>
+      </c>
+      <c r="E54" t="s">
+        <v>996</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>972</v>
+      </c>
+      <c r="C55" t="s">
+        <v>832</v>
+      </c>
+      <c r="E55" t="s">
+        <v>997</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>975</v>
+      </c>
+      <c r="E56" t="s">
+        <v>998</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>973</v>
+      </c>
+      <c r="C57" t="s">
+        <v>976</v>
+      </c>
+      <c r="E57" t="s">
+        <v>999</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>974</v>
+      </c>
+      <c r="C58" t="s">
+        <v>849</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>977</v>
+      </c>
+      <c r="C59" t="s">
+        <v>832</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>978</v>
+      </c>
+      <c r="C60" t="s">
+        <v>832</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>979</v>
+      </c>
+      <c r="C62" t="s">
+        <v>829</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>980</v>
+      </c>
+      <c r="C63" t="s">
+        <v>849</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>981</v>
+      </c>
+      <c r="C64" t="s">
+        <v>849</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>982</v>
+      </c>
+      <c r="C65" t="s">
+        <v>849</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>983</v>
+      </c>
+      <c r="C66" t="s">
+        <v>832</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>984</v>
+      </c>
+      <c r="C67" t="s">
+        <v>832</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>985</v>
+      </c>
+      <c r="C68" t="s">
+        <v>862</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>986</v>
+      </c>
+      <c r="C69" t="s">
+        <v>862</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>987</v>
+      </c>
+      <c r="C70" t="s">
+        <v>862</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>988</v>
+      </c>
+      <c r="C71" t="s">
+        <v>862</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>989</v>
+      </c>
+      <c r="C72" t="s">
+        <v>862</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>990</v>
+      </c>
+      <c r="C74" t="s">
+        <v>862</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>991</v>
+      </c>
+      <c r="C75" t="s">
+        <v>862</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>992</v>
+      </c>
+      <c r="C76" t="s">
+        <v>862</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>993</v>
+      </c>
+      <c r="C77" t="s">
+        <v>862</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>994</v>
+      </c>
+      <c r="C78" t="s">
+        <v>862</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C81" t="s">
+        <v>829</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C82" t="s">
+        <v>862</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C83" t="s">
+        <v>849</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C84" t="s">
+        <v>862</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C86" t="s">
+        <v>832</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C87" t="s">
+        <v>829</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C92" t="s">
+        <v>845</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C93" t="s">
+        <v>845</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C94" t="s">
+        <v>845</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C95" t="s">
+        <v>849</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C97" t="s">
+        <v>971</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C98" t="s">
+        <v>971</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C99" t="s">
+        <v>971</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C100" t="s">
+        <v>862</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C115" t="s">
+        <v>832</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DOC/Boat.xlsx
+++ b/DOC/Boat.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="меню" sheetId="1" r:id="rId1"/>
     <sheet name="artikel" sheetId="2" r:id="rId2"/>
+    <sheet name="fahrzeug" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1536">
   <si>
     <t xml:space="preserve">Немецкий </t>
   </si>
@@ -3421,6 +3422,9 @@
     <t>файл</t>
   </si>
   <si>
+    <t>Шоу</t>
+  </si>
+  <si>
     <t>открыть</t>
   </si>
   <si>
@@ -3455,6 +3459,1197 @@
   </si>
   <si>
     <t>Other storage locations</t>
+  </si>
+  <si>
+    <t>Herst. Typ:</t>
+  </si>
+  <si>
+    <t>Fgst Nr.</t>
+  </si>
+  <si>
+    <t>Marke</t>
+  </si>
+  <si>
+    <t>Typ</t>
+  </si>
+  <si>
+    <t>KFZ-Art</t>
+  </si>
+  <si>
+    <t>Farbcode</t>
+  </si>
+  <si>
+    <t>Modellcode</t>
+  </si>
+  <si>
+    <t>Hubraum</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>amtl. Kennz</t>
+  </si>
+  <si>
+    <t>Sais</t>
+  </si>
+  <si>
+    <t>Erstzul</t>
+  </si>
+  <si>
+    <t>Vorbes</t>
+  </si>
+  <si>
+    <t>tachostand</t>
+  </si>
+  <si>
+    <t>Betriebsstd</t>
+  </si>
+  <si>
+    <t>Meilen</t>
+  </si>
+  <si>
+    <t>Garantie bis</t>
+  </si>
+  <si>
+    <t>ModJahr</t>
+  </si>
+  <si>
+    <t>Baudatum</t>
+  </si>
+  <si>
+    <t>Manuf. Type:</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Vehicle type</t>
+  </si>
+  <si>
+    <t>Color code</t>
+  </si>
+  <si>
+    <t>Model code</t>
+  </si>
+  <si>
+    <t>Displacement</t>
+  </si>
+  <si>
+    <t>official code</t>
+  </si>
+  <si>
+    <t>First permit</t>
+  </si>
+  <si>
+    <t>Prev</t>
+  </si>
+  <si>
+    <t>odometer reading</t>
+  </si>
+  <si>
+    <t>Operating hours</t>
+  </si>
+  <si>
+    <t>miles</t>
+  </si>
+  <si>
+    <t>Guarantee until</t>
+  </si>
+  <si>
+    <t>Construction date</t>
+  </si>
+  <si>
+    <t>Тип производства:</t>
+  </si>
+  <si>
+    <t>марка</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>Тип машины</t>
+  </si>
+  <si>
+    <t>Цветовой код</t>
+  </si>
+  <si>
+    <t>Код модели</t>
+  </si>
+  <si>
+    <t>Смещение</t>
+  </si>
+  <si>
+    <t>официальный код</t>
+  </si>
+  <si>
+    <t>Саис</t>
+  </si>
+  <si>
+    <t>Первое разрешение</t>
+  </si>
+  <si>
+    <t>Предыдущая</t>
+  </si>
+  <si>
+    <t>показания одометра</t>
+  </si>
+  <si>
+    <t>Часы работы</t>
+  </si>
+  <si>
+    <t>миль</t>
+  </si>
+  <si>
+    <t>Гарантия до</t>
+  </si>
+  <si>
+    <t>Дата постройки</t>
+  </si>
+  <si>
+    <t>Schl.Nr. FZ-Schein</t>
+  </si>
+  <si>
+    <t>Lieferant</t>
+  </si>
+  <si>
+    <t>Warengruppe</t>
+  </si>
+  <si>
+    <t>Neuboote</t>
+  </si>
+  <si>
+    <t>FZ Brief Nr. / L.ort</t>
+  </si>
+  <si>
+    <t>Motor Nr.</t>
+  </si>
+  <si>
+    <t>Schl.Nr. / AlarmCd</t>
+  </si>
+  <si>
+    <t>Auftr./Rech. Nr.</t>
+  </si>
+  <si>
+    <t>Unfall</t>
+  </si>
+  <si>
+    <t>Bemerkung 1</t>
+  </si>
+  <si>
+    <t>Bemerkung 2</t>
+  </si>
+  <si>
+    <t>Legerort</t>
+  </si>
+  <si>
+    <t>obj Art</t>
+  </si>
+  <si>
+    <t>Status KFZ</t>
+  </si>
+  <si>
+    <t>Gew.Buch Nr.</t>
+  </si>
+  <si>
+    <t>Garantieverl.</t>
+  </si>
+  <si>
+    <t>Gar. Verl.Vertr. Nr.</t>
+  </si>
+  <si>
+    <t>Garantieanmeldung</t>
+  </si>
+  <si>
+    <t>AW Preis Index</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>Kat</t>
+  </si>
+  <si>
+    <t>geändert v.Pers. Nr.</t>
+  </si>
+  <si>
+    <t>Key No. FZ license</t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>Product group</t>
+  </si>
+  <si>
+    <t>New boats</t>
+  </si>
+  <si>
+    <t>FZ letter no. / Location</t>
+  </si>
+  <si>
+    <t>Engine no.</t>
+  </si>
+  <si>
+    <t>Key No. / AlarmCd</t>
+  </si>
+  <si>
+    <t>Order / accounting No.</t>
+  </si>
+  <si>
+    <t>accident</t>
+  </si>
+  <si>
+    <t>Laying place</t>
+  </si>
+  <si>
+    <t>Status of the vehicle</t>
+  </si>
+  <si>
+    <t>Weight Book No.</t>
+  </si>
+  <si>
+    <t>Warranty extension</t>
+  </si>
+  <si>
+    <t>Gar. Verl.Vertr. No.</t>
+  </si>
+  <si>
+    <t>Guarantee registration</t>
+  </si>
+  <si>
+    <t>AW price index</t>
+  </si>
+  <si>
+    <t>changed by pers. No.</t>
+  </si>
+  <si>
+    <t>Ключ No. Лицензия ФЗ</t>
+  </si>
+  <si>
+    <t>поставщик</t>
+  </si>
+  <si>
+    <t>Группа товаров</t>
+  </si>
+  <si>
+    <t>Новые лодки</t>
+  </si>
+  <si>
+    <t>Номер письма ФЗ / местонахождение</t>
+  </si>
+  <si>
+    <t>№ двигателя</t>
+  </si>
+  <si>
+    <t>Ключевой номер / AlarmCd</t>
+  </si>
+  <si>
+    <t>Заказ / бухгалтерия Нет.</t>
+  </si>
+  <si>
+    <t>несчастный случай</t>
+  </si>
+  <si>
+    <t>Место для укладки</t>
+  </si>
+  <si>
+    <t>Статус автомобиля</t>
+  </si>
+  <si>
+    <t>Весовая книга No.</t>
+  </si>
+  <si>
+    <t>Продление гарантии</t>
+  </si>
+  <si>
+    <t>Gar. Verl.Vertr. Нет.</t>
+  </si>
+  <si>
+    <t>Оформление гарантии</t>
+  </si>
+  <si>
+    <t>Индекс цен AW</t>
+  </si>
+  <si>
+    <t>изменено чел. Нет.</t>
+  </si>
+  <si>
+    <t>Agilis Jettender Gmbh</t>
+  </si>
+  <si>
+    <t>Gebr o. Neu</t>
+  </si>
+  <si>
+    <t>Lieferdatum</t>
+  </si>
+  <si>
+    <t>Valutadat.</t>
+  </si>
+  <si>
+    <t>Bezahlt am</t>
+  </si>
+  <si>
+    <t>Kd. Finanz.bis</t>
+  </si>
+  <si>
+    <t>Neu KFZ</t>
+  </si>
+  <si>
+    <t>EK-KFZ</t>
+  </si>
+  <si>
+    <t>Abschr</t>
+  </si>
+  <si>
+    <t>Prämie</t>
+  </si>
+  <si>
+    <t>Zinsen</t>
+  </si>
+  <si>
+    <t>Int. Kost</t>
+  </si>
+  <si>
+    <t>EK Werkst</t>
+  </si>
+  <si>
+    <t>EK Ausst.</t>
+  </si>
+  <si>
+    <t>Versand</t>
+  </si>
+  <si>
+    <t>Gesamt EK</t>
+  </si>
+  <si>
+    <t>Mögl. Prämie</t>
+  </si>
+  <si>
+    <t>Mwst J/N</t>
+  </si>
+  <si>
+    <t>Diff. St.</t>
+  </si>
+  <si>
+    <t>Zinsdatum</t>
+  </si>
+  <si>
+    <t>Zinstage</t>
+  </si>
+  <si>
+    <t>Used or new</t>
+  </si>
+  <si>
+    <t>New cars</t>
+  </si>
+  <si>
+    <t>delivery date</t>
+  </si>
+  <si>
+    <t>Value date.</t>
+  </si>
+  <si>
+    <t>Paid on</t>
+  </si>
+  <si>
+    <t>Kd. Finance to</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>Total EK</t>
+  </si>
+  <si>
+    <t>Possible bonus</t>
+  </si>
+  <si>
+    <t>VAT Y / N</t>
+  </si>
+  <si>
+    <t>Interest date</t>
+  </si>
+  <si>
+    <t>Interest days</t>
+  </si>
+  <si>
+    <t>Б / у или новый</t>
+  </si>
+  <si>
+    <t>Новые автомобили</t>
+  </si>
+  <si>
+    <t>Дата доставки</t>
+  </si>
+  <si>
+    <t>Дата валютирования.</t>
+  </si>
+  <si>
+    <t>Оплачено</t>
+  </si>
+  <si>
+    <t>Kd. Финансирование</t>
+  </si>
+  <si>
+    <t>Амортизация</t>
+  </si>
+  <si>
+    <t>бонус</t>
+  </si>
+  <si>
+    <t>интерес</t>
+  </si>
+  <si>
+    <t>Перевозка</t>
+  </si>
+  <si>
+    <t>Итого EK</t>
+  </si>
+  <si>
+    <t>Возможно бонус</t>
+  </si>
+  <si>
+    <t>НДС Да / Нет</t>
+  </si>
+  <si>
+    <t>Дата выплаты процентов</t>
+  </si>
+  <si>
+    <t>Процентные дни</t>
+  </si>
+  <si>
+    <t>Fracht EK</t>
+  </si>
+  <si>
+    <t>Zahlbetr.</t>
+  </si>
+  <si>
+    <t>EK Netto</t>
+  </si>
+  <si>
+    <t>Liste Netto</t>
+  </si>
+  <si>
+    <t>VK Netto</t>
+  </si>
+  <si>
+    <t>BE.</t>
+  </si>
+  <si>
+    <t>Kalk</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Verkauft</t>
+  </si>
+  <si>
+    <t>Zins %</t>
+  </si>
+  <si>
+    <t>Fracht VK</t>
+  </si>
+  <si>
+    <t>Brutto</t>
+  </si>
+  <si>
+    <t>Abschreiben</t>
+  </si>
+  <si>
+    <t>Liste Brutto</t>
+  </si>
+  <si>
+    <t>VK Brutto</t>
+  </si>
+  <si>
+    <t>Inventur</t>
+  </si>
+  <si>
+    <t>VK Werkstatt</t>
+  </si>
+  <si>
+    <t>VK Ausstatt.</t>
+  </si>
+  <si>
+    <t>Gesamt VK</t>
+  </si>
+  <si>
+    <t>Freight EK</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>List net</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>List gross</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Грузовой ЭК</t>
+  </si>
+  <si>
+    <t>Оплата</t>
+  </si>
+  <si>
+    <t>Список нетто</t>
+  </si>
+  <si>
+    <t>Продано</t>
+  </si>
+  <si>
+    <t>Валовой</t>
+  </si>
+  <si>
+    <t>Список брутто</t>
+  </si>
+  <si>
+    <t>Инвентарь</t>
+  </si>
+  <si>
+    <t>Процент дохода</t>
+  </si>
+  <si>
+    <t>Percentage of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>оборудование</t>
+  </si>
+  <si>
+    <t>мастерская</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> equipment</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>склад</t>
+  </si>
+  <si>
+    <t>Bemerkung</t>
+  </si>
+  <si>
+    <t>Bemerkung zum KFZ</t>
+  </si>
+  <si>
+    <t>diese Bemerkung auf allen Formularen immer drucken</t>
+  </si>
+  <si>
+    <t>Bemerkung mit Grunddaten synchronisieren</t>
+  </si>
+  <si>
+    <t>Art. Nr EA Reifen vorne</t>
+  </si>
+  <si>
+    <t>Art. Nr EA Reifen hinten</t>
+  </si>
+  <si>
+    <t>Sitzh.</t>
+  </si>
+  <si>
+    <t>EK-Land</t>
+  </si>
+  <si>
+    <t>EK-Währg. Kurs</t>
+  </si>
+  <si>
+    <t>ZollEK</t>
+  </si>
+  <si>
+    <t>VK-Datum</t>
+  </si>
+  <si>
+    <t>комментарий</t>
+  </si>
+  <si>
+    <t>Комментарий к автомобилю</t>
+  </si>
+  <si>
+    <t>Всегда печатайте это примечание на всех формах</t>
+  </si>
+  <si>
+    <t>Синхронизировать замечание с основными данными</t>
+  </si>
+  <si>
+    <t>№ арт. Передняя шина EA</t>
+  </si>
+  <si>
+    <t>Арт. № ЕА задняя шина</t>
+  </si>
+  <si>
+    <t>Сиденье</t>
+  </si>
+  <si>
+    <t>Страна EK</t>
+  </si>
+  <si>
+    <t>Валюта EK курс</t>
+  </si>
+  <si>
+    <t>Дата продажи</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>Очистить</t>
+  </si>
+  <si>
+    <t>Сменить</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Nutzer</t>
+  </si>
+  <si>
+    <t>Halter</t>
+  </si>
+  <si>
+    <t>holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> владелец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользователь </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User </t>
+  </si>
+  <si>
+    <t>Leasinggeber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payer </t>
+  </si>
+  <si>
+    <t>lessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Плательщик </t>
+  </si>
+  <si>
+    <t>арендодатель</t>
+  </si>
+  <si>
+    <t>Zahler</t>
+  </si>
+  <si>
+    <t>AfterSalesZahler</t>
+  </si>
+  <si>
+    <t>Vorbesitzer/-nutzer</t>
+  </si>
+  <si>
+    <t>Letzte Inspektion</t>
+  </si>
+  <si>
+    <t>Nächste Inspektion</t>
+  </si>
+  <si>
+    <t>Abmeldedat.</t>
+  </si>
+  <si>
+    <t>Alter Status</t>
+  </si>
+  <si>
+    <t>Плательщик после продажи</t>
+  </si>
+  <si>
+    <t>Предыдущий владелец / пользователь</t>
+  </si>
+  <si>
+    <t>Последний осмотр</t>
+  </si>
+  <si>
+    <t>Следующая проверка</t>
+  </si>
+  <si>
+    <t>Дата отказа от подписки</t>
+  </si>
+  <si>
+    <t>Старый статус</t>
+  </si>
+  <si>
+    <t>After sales payer</t>
+  </si>
+  <si>
+    <t>Previous owner / user</t>
+  </si>
+  <si>
+    <t>Last inspection</t>
+  </si>
+  <si>
+    <t>Next inspection</t>
+  </si>
+  <si>
+    <t>Unsubscribe date.</t>
+  </si>
+  <si>
+    <t>Old status</t>
+  </si>
+  <si>
+    <t>5 страничка</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Text Nummer</t>
+  </si>
+  <si>
+    <t>Internet Marke (leer=KFZ-Marke)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internetübergabe </t>
+  </si>
+  <si>
+    <t>mobile.de</t>
+  </si>
+  <si>
+    <t>webmobil24</t>
+  </si>
+  <si>
+    <t>autoscout24</t>
+  </si>
+  <si>
+    <t>hd-used</t>
+  </si>
+  <si>
+    <t>1000PS</t>
+  </si>
+  <si>
+    <t>motomarkt</t>
+  </si>
+  <si>
+    <t>custombike</t>
+  </si>
+  <si>
+    <t>Sonstige</t>
+  </si>
+  <si>
+    <t>individuelle Texte für die Übertragung in das Internet</t>
+  </si>
+  <si>
+    <t>Интернет</t>
+  </si>
+  <si>
+    <t>Номер текста</t>
+  </si>
+  <si>
+    <t>Передача интернета</t>
+  </si>
+  <si>
+    <t>HD-б / у</t>
+  </si>
+  <si>
+    <t>1000 л.с.</t>
+  </si>
+  <si>
+    <t>автомобильный рынок</t>
+  </si>
+  <si>
+    <t>Text number</t>
+  </si>
+  <si>
+    <t>Internet handover</t>
+  </si>
+  <si>
+    <t>motor market</t>
+  </si>
+  <si>
+    <t>individual texts for transmission on the Internet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet brand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интернет-бренд </t>
+  </si>
+  <si>
+    <t>Zeile Mobile</t>
+  </si>
+  <si>
+    <t>Werkst. Zubehör anfügen</t>
+  </si>
+  <si>
+    <t>Ausstattung anfügen</t>
+  </si>
+  <si>
+    <t>Scheckhgpf</t>
+  </si>
+  <si>
+    <t>Scheibe</t>
+  </si>
+  <si>
+    <t>TOP-Insera</t>
+  </si>
+  <si>
+    <t>Sturzb.</t>
+  </si>
+  <si>
+    <t>Koffer</t>
+  </si>
+  <si>
+    <t>Eyecatcher (mobile)</t>
+  </si>
+  <si>
+    <t>Behind.ger.</t>
+  </si>
+  <si>
+    <t>Vorbes.übertr.</t>
+  </si>
+  <si>
+    <t>Kickstarter</t>
+  </si>
+  <si>
+    <t>E-Starter</t>
+  </si>
+  <si>
+    <t>HU neu bei Ver</t>
+  </si>
+  <si>
+    <t>ChromeCard</t>
+  </si>
+  <si>
+    <t>12 Mon. Garantie</t>
+  </si>
+  <si>
+    <t>24 Mon. Garantie</t>
+  </si>
+  <si>
+    <t>Qualitätsprüfung</t>
+  </si>
+  <si>
+    <t>6 страничка</t>
+  </si>
+  <si>
+    <t>Dokumente / Bilder</t>
+  </si>
+  <si>
+    <t>Dateinen können auch mit Drag u.</t>
+  </si>
+  <si>
+    <t>7 страничка</t>
+  </si>
+  <si>
+    <t>Документы / фотографии</t>
+  </si>
+  <si>
+    <t>транспортное средство</t>
+  </si>
+  <si>
+    <t>Documents / pictures</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>Weiteres</t>
+  </si>
+  <si>
+    <t>Kraftstoffart</t>
+  </si>
+  <si>
+    <t>Leergewicht</t>
+  </si>
+  <si>
+    <t>zul. Anhängergew</t>
+  </si>
+  <si>
+    <t>Sitzplätze</t>
+  </si>
+  <si>
+    <t>Getriebeart</t>
+  </si>
+  <si>
+    <t>Antriebsart</t>
+  </si>
+  <si>
+    <t>Schadstoffklasse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verbrauch I/100Km </t>
+  </si>
+  <si>
+    <t>zul. Gesamtgewicht</t>
+  </si>
+  <si>
+    <t>gebr. Anhängergew</t>
+  </si>
+  <si>
+    <t>Länge/ Breite / Höhe</t>
+  </si>
+  <si>
+    <t>Co2/Km</t>
+  </si>
+  <si>
+    <t>Tankinhalt</t>
+  </si>
+  <si>
+    <t>Тип топлива</t>
+  </si>
+  <si>
+    <t>Пустой вес</t>
+  </si>
+  <si>
+    <t>допустимая масса прицепа</t>
+  </si>
+  <si>
+    <t>Сиденья</t>
+  </si>
+  <si>
+    <t>Тип шестерни</t>
+  </si>
+  <si>
+    <t>Тип вождения</t>
+  </si>
+  <si>
+    <t>Класс эмиссии</t>
+  </si>
+  <si>
+    <t>Расход I / 100 км</t>
+  </si>
+  <si>
+    <t>используемый Вес прицепа</t>
+  </si>
+  <si>
+    <t>Длина, ширина, высота</t>
+  </si>
+  <si>
+    <t>Co2 / км</t>
+  </si>
+  <si>
+    <t>Емкость бака</t>
+  </si>
+  <si>
+    <t>Общий вес</t>
+  </si>
+  <si>
+    <t>Fuel type</t>
+  </si>
+  <si>
+    <t>Empty weight</t>
+  </si>
+  <si>
+    <t>permissible trailer weight</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>Gear type</t>
+  </si>
+  <si>
+    <t>Drive type</t>
+  </si>
+  <si>
+    <t>Emission class</t>
+  </si>
+  <si>
+    <t>Consumption I / 100Km</t>
+  </si>
+  <si>
+    <t>used Trailer weight</t>
+  </si>
+  <si>
+    <t>Length Width Height</t>
+  </si>
+  <si>
+    <t>Co2 / Km</t>
+  </si>
+  <si>
+    <t>Tank capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total weight</t>
+  </si>
+  <si>
+    <t>Zustandsliste</t>
+  </si>
+  <si>
+    <t>int. Auftrag</t>
+  </si>
+  <si>
+    <t>Ausstattung</t>
+  </si>
+  <si>
+    <t>Mieterlös</t>
+  </si>
+  <si>
+    <t>Bank EK</t>
+  </si>
+  <si>
+    <t>Wiedervorl</t>
+  </si>
+  <si>
+    <t>Probefahrten</t>
+  </si>
+  <si>
+    <t>Buchen WE</t>
+  </si>
+  <si>
+    <t>RTF/ Word</t>
+  </si>
+  <si>
+    <t>Verkaufsdaten</t>
+  </si>
+  <si>
+    <t>Reifenliste</t>
+  </si>
+  <si>
+    <t>Kunde</t>
+  </si>
+  <si>
+    <t>Fremddaten</t>
+  </si>
+  <si>
+    <t>Online Rückruf</t>
+  </si>
+  <si>
+    <t>Historie</t>
+  </si>
+  <si>
+    <t>Abschreibungen</t>
+  </si>
+  <si>
+    <t>Reifenlager</t>
+  </si>
+  <si>
+    <t>Список статусов</t>
+  </si>
+  <si>
+    <t>внутренний заказ</t>
+  </si>
+  <si>
+    <t>Меблировка</t>
+  </si>
+  <si>
+    <t>Рентный доход</t>
+  </si>
+  <si>
+    <t>Банк ЭК</t>
+  </si>
+  <si>
+    <t>Повторение</t>
+  </si>
+  <si>
+    <t>Тест-драйвы</t>
+  </si>
+  <si>
+    <t>Забронировать МЫ</t>
+  </si>
+  <si>
+    <t>RTF / Word</t>
+  </si>
+  <si>
+    <t>Данные о продажах</t>
+  </si>
+  <si>
+    <t>Список шин</t>
+  </si>
+  <si>
+    <t>клиент</t>
+  </si>
+  <si>
+    <t>Внешние данные</t>
+  </si>
+  <si>
+    <t>Обратный звонок онлайн</t>
+  </si>
+  <si>
+    <t>история</t>
+  </si>
+  <si>
+    <t>Status list</t>
+  </si>
+  <si>
+    <t>int. order</t>
+  </si>
+  <si>
+    <t>Furnishing</t>
+  </si>
+  <si>
+    <t>Rental income</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Test drives</t>
+  </si>
+  <si>
+    <t>Book WE</t>
+  </si>
+  <si>
+    <t>Sales data</t>
+  </si>
+  <si>
+    <t>Tire list</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>External data</t>
+  </si>
+  <si>
+    <t>Online callback</t>
+  </si>
+  <si>
+    <t>history</t>
   </si>
 </sst>
 </file>
@@ -6913,8 +8108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114:E115"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,7 +9429,7 @@
         <v>1116</v>
       </c>
       <c r="G107" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -8245,7 +9440,7 @@
         <v>1117</v>
       </c>
       <c r="G108" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -8256,7 +9451,7 @@
         <v>1118</v>
       </c>
       <c r="G109" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -8267,7 +9462,7 @@
         <v>1119</v>
       </c>
       <c r="G110" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -8278,7 +9473,7 @@
         <v>1120</v>
       </c>
       <c r="G111" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -8289,7 +9484,7 @@
         <v>1121</v>
       </c>
       <c r="G112" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -8297,31 +9492,2340 @@
         <v>1102</v>
       </c>
       <c r="B114" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="E114" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G114" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C115" t="s">
         <v>832</v>
       </c>
       <c r="E115" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="G115" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="50.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>967</v>
+      </c>
+      <c r="E2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>827</v>
+      </c>
+      <c r="E3" t="s">
+        <v>879</v>
+      </c>
+      <c r="G3" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>829</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C8" t="s">
+        <v>829</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C9" t="s">
+        <v>829</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>840</v>
+      </c>
+      <c r="C10" t="s">
+        <v>832</v>
+      </c>
+      <c r="E10" t="s">
+        <v>889</v>
+      </c>
+      <c r="G10" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>849</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C14" t="s">
+        <v>849</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>832</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>849</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>849</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>832</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>845</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C23" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>845</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>990</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>832</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C28" t="s">
+        <v>829</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C30" t="s">
+        <v>829</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1215</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C32" t="s">
+        <v>832</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C33" t="s">
+        <v>832</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C34" t="s">
+        <v>832</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C35" t="s">
+        <v>832</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C36" t="s">
+        <v>832</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C37" t="s">
+        <v>832</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C38" t="s">
+        <v>832</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C39" t="s">
+        <v>832</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C40" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C41" t="s">
+        <v>829</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C42" t="s">
+        <v>832</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C43" t="s">
+        <v>832</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C44" t="s">
+        <v>845</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>832</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C46" t="s">
+        <v>845</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>849</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C48" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C49" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>849</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>966</v>
+      </c>
+      <c r="B52" t="s">
+        <v>557</v>
+      </c>
+      <c r="E52" t="s">
+        <v>558</v>
+      </c>
+      <c r="G52" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C53" t="s">
+        <v>832</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C55" t="s">
+        <v>845</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C56" t="s">
+        <v>845</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C57" t="s">
+        <v>845</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C58" t="s">
+        <v>845</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1272</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C59" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C60" t="s">
+        <v>849</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C61" t="s">
+        <v>849</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C62" t="s">
+        <v>849</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C65" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C66" t="s">
+        <v>849</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C67" t="s">
+        <v>849</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C68" t="s">
+        <v>849</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C69" t="s">
+        <v>832</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C71" t="s">
+        <v>845</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C73" t="s">
+        <v>849</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1317</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C74" t="s">
+        <v>849</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C75" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>849</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1319</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C77" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C78" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C80" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C81" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C83" t="s">
+        <v>849</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C84" t="s">
+        <v>849</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C85" t="s">
+        <v>849</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C86" t="s">
+        <v>862</v>
+      </c>
+      <c r="E86" t="s">
+        <v>958</v>
+      </c>
+      <c r="G86" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C87" t="s">
+        <v>849</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C88" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C89" t="s">
+        <v>862</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C91" t="s">
+        <v>849</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C92" t="s">
+        <v>849</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C93" t="s">
+        <v>849</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C97" t="s">
+        <v>862</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1344</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C99" t="s">
+        <v>829</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C100" t="s">
+        <v>829</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>835</v>
+      </c>
+      <c r="C101" t="s">
+        <v>832</v>
+      </c>
+      <c r="E101" t="s">
+        <v>835</v>
+      </c>
+      <c r="G101" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C102" t="s">
+        <v>849</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C103" t="s">
+        <v>829</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>972</v>
+      </c>
+      <c r="C104" t="s">
+        <v>832</v>
+      </c>
+      <c r="E104" t="s">
+        <v>972</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C105" t="s">
+        <v>849</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C106" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C107" t="s">
+        <v>845</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B109" t="s">
+        <v>47</v>
+      </c>
+      <c r="E109" t="s">
+        <v>188</v>
+      </c>
+      <c r="G109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1377</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C118" t="s">
+        <v>845</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C119" t="s">
+        <v>845</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1396</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C120" t="s">
+        <v>845</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C124" t="s">
+        <v>829</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C125" t="s">
+        <v>832</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C126" t="s">
+        <v>862</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C127" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C128" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C129" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C130" t="s">
+        <v>862</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1407</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C131" t="s">
+        <v>862</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C132" t="s">
+        <v>862</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C133" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C134" t="s">
+        <v>862</v>
+      </c>
+      <c r="E134" t="s">
+        <v>377</v>
+      </c>
+      <c r="G134" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C135" t="s">
+        <v>832</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C136" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C139" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C140" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C141" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C142" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C143" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C144" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C145" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C146" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C147" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C148" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C149" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C150" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C151" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C152" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C153" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>87</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1450</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C167" t="s">
+        <v>829</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C168" t="s">
+        <v>849</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1479</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C169" t="s">
+        <v>849</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1480</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C170" t="s">
+        <v>849</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C171" t="s">
+        <v>829</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1482</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C172" t="s">
+        <v>829</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C173" t="s">
+        <v>832</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C174" t="s">
+        <v>849</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C175" t="s">
+        <v>849</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C176" t="s">
+        <v>849</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C177" t="s">
+        <v>849</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C178" t="s">
+        <v>849</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C179" t="s">
+        <v>849</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>872</v>
+      </c>
+      <c r="E181" t="s">
+        <v>954</v>
+      </c>
+      <c r="G181" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>874</v>
+      </c>
+      <c r="E183" t="s">
+        <v>955</v>
+      </c>
+      <c r="G183" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1528</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1529</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1516</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1535</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E201" t="s">
+        <v>364</v>
+      </c>
+      <c r="G201" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/Boat.xlsx
+++ b/DOC/Boat.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="меню" sheetId="1" r:id="rId1"/>
     <sheet name="artikel" sheetId="2" r:id="rId2"/>
     <sheet name="fahrzeug" sheetId="3" r:id="rId3"/>
+    <sheet name="kunden" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1867" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1605">
   <si>
     <t xml:space="preserve">Немецкий </t>
   </si>
@@ -4650,6 +4651,213 @@
   </si>
   <si>
     <t>history</t>
+  </si>
+  <si>
+    <t>hauptdaten</t>
+  </si>
+  <si>
+    <t>Name / Fa./ tel.</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Anrede</t>
+  </si>
+  <si>
+    <t>Zusatz</t>
+  </si>
+  <si>
+    <t>guid</t>
+  </si>
+  <si>
+    <t>straße</t>
+  </si>
+  <si>
+    <t>Wohnort</t>
+  </si>
+  <si>
+    <t>tel pri</t>
+  </si>
+  <si>
+    <t>tel gesch</t>
+  </si>
+  <si>
+    <t>telefax</t>
+  </si>
+  <si>
+    <t>handy nr.</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>internet</t>
+  </si>
+  <si>
+    <t>geb.tag</t>
+  </si>
+  <si>
+    <t>Sie</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>ser.brief</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>anruf</t>
+  </si>
+  <si>
+    <t>weiterleitung</t>
+  </si>
+  <si>
+    <t>weitere Erklärungen</t>
+  </si>
+  <si>
+    <t>schriftlich am</t>
+  </si>
+  <si>
+    <t>erklärt</t>
+  </si>
+  <si>
+    <t>bemerkung bei kd.anwahl sichtbar</t>
+  </si>
+  <si>
+    <t>beruf</t>
+  </si>
+  <si>
+    <t>archiv</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>kd. Karten nr.</t>
+  </si>
+  <si>
+    <t>filiale</t>
+  </si>
+  <si>
+    <t>nur chef st.</t>
+  </si>
+  <si>
+    <t>händler</t>
+  </si>
+  <si>
+    <t>karte</t>
+  </si>
+  <si>
+    <t>gew. Kunde</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>sprache</t>
+  </si>
+  <si>
+    <t>art.-, vergl.-, o. Int. Nr. auf rechnung</t>
+  </si>
+  <si>
+    <t>daten herkunft</t>
+  </si>
+  <si>
+    <t>klassifizierung</t>
+  </si>
+  <si>
+    <t>kd.kasse</t>
+  </si>
+  <si>
+    <t>sort.</t>
+  </si>
+  <si>
+    <t>berater</t>
+  </si>
+  <si>
+    <t>maxym starc</t>
+  </si>
+  <si>
+    <t>bem. Bestätiqen</t>
+  </si>
+  <si>
+    <t>bild</t>
+  </si>
+  <si>
+    <t>ansprechpartner</t>
+  </si>
+  <si>
+    <t>opOs</t>
+  </si>
+  <si>
+    <t>datenschutzerkl.</t>
+  </si>
+  <si>
+    <t>weitere dokumente</t>
+  </si>
+  <si>
+    <t>formulare</t>
+  </si>
+  <si>
+    <t>anrufen</t>
+  </si>
+  <si>
+    <t>Zusatzdaten</t>
+  </si>
+  <si>
+    <t>konto nr.</t>
+  </si>
+  <si>
+    <t>bankeinzug</t>
+  </si>
+  <si>
+    <t>zahlart</t>
+  </si>
+  <si>
+    <t>sepa mandat</t>
+  </si>
+  <si>
+    <t>kein M</t>
+  </si>
+  <si>
+    <t>Mandatsverwaltung</t>
+  </si>
+  <si>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>ustldNr.</t>
+  </si>
+  <si>
+    <t>Inhaber</t>
+  </si>
+  <si>
+    <t>Mwst frei</t>
+  </si>
+  <si>
+    <t>ausweis- und führerscheidaten</t>
+  </si>
+  <si>
+    <t>ausweisnr</t>
+  </si>
+  <si>
+    <t>geburtsort</t>
+  </si>
+  <si>
+    <t>FührerscheinNr</t>
   </si>
 </sst>
 </file>
@@ -5031,7 +5239,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9525,8 +9733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11828,4 +12036,552 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C4" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C9" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C11" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C13" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C15" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C16" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C17" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C18" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C19" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C20" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C21" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C22" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C23" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C25" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C26" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C27" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>990</v>
+      </c>
+      <c r="C29" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C30" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C34" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C35" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C39" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C40" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C41" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C49" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>966</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C61" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C67" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C68" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C69" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C73" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C74" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C75" t="s">
+        <v>832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/Boat.xlsx
+++ b/DOC/Boat.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSD\DOC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3ABA9-9491-470A-B2BB-F282E6AB5EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="10920" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="меню" sheetId="1" r:id="rId1"/>
@@ -17,20 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1826">
   <si>
     <t xml:space="preserve">Немецкий </t>
   </si>
@@ -4704,9 +4702,6 @@
     <t>du</t>
   </si>
   <si>
-    <t>ser.brief</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -4858,12 +4853,678 @@
   </si>
   <si>
     <t>FührerscheinNr</t>
+  </si>
+  <si>
+    <t>Austellungsort</t>
+  </si>
+  <si>
+    <t>Ausst.Datum</t>
+  </si>
+  <si>
+    <t>Klassen</t>
+  </si>
+  <si>
+    <t>Kreditkarte</t>
+  </si>
+  <si>
+    <t>Konfektionsgrössen</t>
+  </si>
+  <si>
+    <t>kopf</t>
+  </si>
+  <si>
+    <t>jacke</t>
+  </si>
+  <si>
+    <t>Hose</t>
+  </si>
+  <si>
+    <t>Schuh</t>
+  </si>
+  <si>
+    <t>Hd-schuh</t>
+  </si>
+  <si>
+    <t>Rabatte / Skonto</t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Rabatt-ky</t>
+  </si>
+  <si>
+    <t>rabatt bis</t>
+  </si>
+  <si>
+    <t>Rabatt aufladenpreis</t>
+  </si>
+  <si>
+    <t>Rabatt auf Empf. VK</t>
+  </si>
+  <si>
+    <t>Aufschlag auf netto EK</t>
+  </si>
+  <si>
+    <t>Skonto Tage</t>
+  </si>
+  <si>
+    <t>Brutto Tage</t>
+  </si>
+  <si>
+    <t>Lieferadr.</t>
+  </si>
+  <si>
+    <t>Lieferadr. Löschen</t>
+  </si>
+  <si>
+    <t>Probef. / CRM</t>
+  </si>
+  <si>
+    <t>CRM Protocoll</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Kennz</t>
+  </si>
+  <si>
+    <t>kommentar</t>
+  </si>
+  <si>
+    <t>Geburtstag</t>
+  </si>
+  <si>
+    <t>bearbeiten</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>neue Probefahrt</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>Bemerkung bei kundenanwahl nicht sichtbar</t>
+  </si>
+  <si>
+    <t>Kundenfahrzeuge</t>
+  </si>
+  <si>
+    <t>Marke/typ</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bezahlt</t>
+  </si>
+  <si>
+    <t>Beziehungen</t>
+  </si>
+  <si>
+    <t>Beziehung</t>
+  </si>
+  <si>
+    <t>основные данные</t>
+  </si>
+  <si>
+    <t>ФИО / компания / тел.</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Приветствие</t>
+  </si>
+  <si>
+    <t>добавка</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>место жительства</t>
+  </si>
+  <si>
+    <t>факс</t>
+  </si>
+  <si>
+    <t>номер мобильного телефона.</t>
+  </si>
+  <si>
+    <t>Эл. почта</t>
+  </si>
+  <si>
+    <t>день рождения</t>
+  </si>
+  <si>
+    <t>она</t>
+  </si>
+  <si>
+    <t>ты</t>
+  </si>
+  <si>
+    <t>почта</t>
+  </si>
+  <si>
+    <t>смс</t>
+  </si>
+  <si>
+    <t>Вызов</t>
+  </si>
+  <si>
+    <t>пересылка</t>
+  </si>
+  <si>
+    <t>дальнейшие объяснения</t>
+  </si>
+  <si>
+    <t>в письменной форме на</t>
+  </si>
+  <si>
+    <t>объяснил</t>
+  </si>
+  <si>
+    <t>Уведомление отображается, когда клиент звонит</t>
+  </si>
+  <si>
+    <t>main data</t>
+  </si>
+  <si>
+    <t>Name / company / tel.</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>additive</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>place of residence</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>mobile phone number.</t>
+  </si>
+  <si>
+    <t>born day</t>
+  </si>
+  <si>
+    <t>she</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>forwarding</t>
+  </si>
+  <si>
+    <t>further explanations</t>
+  </si>
+  <si>
+    <t>in writing on</t>
+  </si>
+  <si>
+    <t>explained</t>
+  </si>
+  <si>
+    <t>Notice visible when customer dials</t>
+  </si>
+  <si>
+    <t>ser. brief</t>
+  </si>
+  <si>
+    <t>… письмо</t>
+  </si>
+  <si>
+    <t>работа</t>
+  </si>
+  <si>
+    <t>архив</t>
+  </si>
+  <si>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>премия</t>
+  </si>
+  <si>
+    <t>кд. Карты нет.</t>
+  </si>
+  <si>
+    <t>филиал</t>
+  </si>
+  <si>
+    <t>только босс ул.</t>
+  </si>
+  <si>
+    <t>дилер</t>
+  </si>
+  <si>
+    <t>карта</t>
+  </si>
+  <si>
+    <t>решительный клиент</t>
+  </si>
+  <si>
+    <t>арт.-, комп.-, о. Int. Нет в аккаунте</t>
+  </si>
+  <si>
+    <t>источник данных</t>
+  </si>
+  <si>
+    <t>классификация</t>
+  </si>
+  <si>
+    <t>Сортировать.</t>
+  </si>
+  <si>
+    <t>советник</t>
+  </si>
+  <si>
+    <t>Maxym Starc</t>
+  </si>
+  <si>
+    <t>bem. Подтвердить</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>kd. Cards no.</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>only boss st.</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>determined customer</t>
+  </si>
+  <si>
+    <t>art.-, comp.-, o. Int. No on account</t>
+  </si>
+  <si>
+    <t>data origin</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>advisor</t>
+  </si>
+  <si>
+    <t>bem. Confirm</t>
+  </si>
+  <si>
+    <t>логин</t>
+  </si>
+  <si>
+    <t>...касса</t>
+  </si>
+  <si>
+    <t>...cashbox</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>data protection class</t>
+  </si>
+  <si>
+    <t>other documents</t>
+  </si>
+  <si>
+    <t>forms</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>Контактное лицо</t>
+  </si>
+  <si>
+    <t>класс защиты данных</t>
+  </si>
+  <si>
+    <t>другие документы</t>
+  </si>
+  <si>
+    <t>формы</t>
+  </si>
+  <si>
+    <t>вызов</t>
+  </si>
+  <si>
+    <t>номер аккаунта.</t>
+  </si>
+  <si>
+    <t>прямой дебет</t>
+  </si>
+  <si>
+    <t>Способ оплаты</t>
+  </si>
+  <si>
+    <t>отдельный мандат</t>
+  </si>
+  <si>
+    <t>нет М.</t>
+  </si>
+  <si>
+    <t>Управление мандатом</t>
+  </si>
+  <si>
+    <t>Банка</t>
+  </si>
+  <si>
+    <t>владелец</t>
+  </si>
+  <si>
+    <t>Без НДС</t>
+  </si>
+  <si>
+    <t>additional data</t>
+  </si>
+  <si>
+    <t>account number.</t>
+  </si>
+  <si>
+    <t>direct debit</t>
+  </si>
+  <si>
+    <t>payment method</t>
+  </si>
+  <si>
+    <t>sepa mandate</t>
+  </si>
+  <si>
+    <t>no M.</t>
+  </si>
+  <si>
+    <t>Mandate management</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>VAT free</t>
+  </si>
+  <si>
+    <t>ID and driving license data</t>
+  </si>
+  <si>
+    <t>ID number</t>
+  </si>
+  <si>
+    <t>place of birth</t>
+  </si>
+  <si>
+    <t>Driving license no</t>
+  </si>
+  <si>
+    <t>Place of issue</t>
+  </si>
+  <si>
+    <t>Issue date</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Credit card</t>
+  </si>
+  <si>
+    <t>Clothing sizes</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>jacket</t>
+  </si>
+  <si>
+    <t>trousers</t>
+  </si>
+  <si>
+    <t>shoe</t>
+  </si>
+  <si>
+    <t>Hd shoe</t>
+  </si>
+  <si>
+    <t>Discounts / cash discounts</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Discount-ky</t>
+  </si>
+  <si>
+    <t>discount up</t>
+  </si>
+  <si>
+    <t>Discount charging price</t>
+  </si>
+  <si>
+    <t>Discount on recommended retail price</t>
+  </si>
+  <si>
+    <t>Surcharge on net purchase price</t>
+  </si>
+  <si>
+    <t>Discount days</t>
+  </si>
+  <si>
+    <t>Gross days</t>
+  </si>
+  <si>
+    <t>Delivery address</t>
+  </si>
+  <si>
+    <t>Delivery address Clear</t>
+  </si>
+  <si>
+    <t>Trial. / CRM</t>
+  </si>
+  <si>
+    <t>CRM protocol</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>to edit</t>
+  </si>
+  <si>
+    <t>new test drive</t>
+  </si>
+  <si>
+    <t>to press</t>
+  </si>
+  <si>
+    <t>Comment not visible when selecting the customer</t>
+  </si>
+  <si>
+    <t>Customer vehicles</t>
+  </si>
+  <si>
+    <t>Brand / typ</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>You can also drag and drop files.</t>
+  </si>
+  <si>
+    <t>Relationships</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>Данные удостоверения личности и водительских прав</t>
+  </si>
+  <si>
+    <t>идентификационный номер</t>
+  </si>
+  <si>
+    <t>место рождения</t>
+  </si>
+  <si>
+    <t>Водительское удостоверение №</t>
+  </si>
+  <si>
+    <t>Место выдачи</t>
+  </si>
+  <si>
+    <t>Дата выпуска</t>
+  </si>
+  <si>
+    <t>Классы</t>
+  </si>
+  <si>
+    <t>Кредитная карта</t>
+  </si>
+  <si>
+    <t>Размеры одежды</t>
+  </si>
+  <si>
+    <t>глава</t>
+  </si>
+  <si>
+    <t>куртка</t>
+  </si>
+  <si>
+    <t>штаны</t>
+  </si>
+  <si>
+    <t>обувь</t>
+  </si>
+  <si>
+    <t>Обувь HD</t>
+  </si>
+  <si>
+    <t>Скидки / скидки при оплате наличными</t>
+  </si>
+  <si>
+    <t>группа</t>
+  </si>
+  <si>
+    <t>скидка вверх</t>
+  </si>
+  <si>
+    <t>Цена со скидкой</t>
+  </si>
+  <si>
+    <t>Скидка от рекомендованной розничной цены</t>
+  </si>
+  <si>
+    <t>Доплата к чистой покупной цене</t>
+  </si>
+  <si>
+    <t>Дни скидок</t>
+  </si>
+  <si>
+    <t>Брутто дней</t>
+  </si>
+  <si>
+    <t>Адресс доставки</t>
+  </si>
+  <si>
+    <t>Адресс доставки Очистить</t>
+  </si>
+  <si>
+    <t>Пробный. / CRM</t>
+  </si>
+  <si>
+    <t>CRM протокол</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>редактировать</t>
+  </si>
+  <si>
+    <t>слово</t>
+  </si>
+  <si>
+    <t>новый тест-драйв</t>
+  </si>
+  <si>
+    <t>нажать</t>
+  </si>
+  <si>
+    <t>Комментарий не отображается при выборе клиента</t>
+  </si>
+  <si>
+    <t>Транспортные средства клиентов</t>
+  </si>
+  <si>
+    <t>Бренд / тип</t>
+  </si>
+  <si>
+    <t>положение дел</t>
+  </si>
+  <si>
+    <t>Платный</t>
+  </si>
+  <si>
+    <t>Отношения</t>
+  </si>
+  <si>
+    <t>отношения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5239,14 +5900,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
@@ -8313,7 +8974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -9730,7 +10391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12039,11 +12700,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12076,11 +12738,23 @@
       <c r="B2" t="s">
         <v>967</v>
       </c>
+      <c r="E2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G2" t="s">
+        <v>892</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1536</v>
       </c>
+      <c r="E3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1642</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -12089,6 +12763,12 @@
       <c r="C4" t="s">
         <v>832</v>
       </c>
+      <c r="E4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1643</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -12097,6 +12777,12 @@
       <c r="C5" t="s">
         <v>832</v>
       </c>
+      <c r="E5" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1644</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -12105,6 +12791,12 @@
       <c r="C6" t="s">
         <v>1541</v>
       </c>
+      <c r="E6" t="s">
+        <v>1666</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1645</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -12113,6 +12805,12 @@
       <c r="C7" t="s">
         <v>832</v>
       </c>
+      <c r="E7" t="s">
+        <v>1667</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1646</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -12121,6 +12819,12 @@
       <c r="C8" t="s">
         <v>832</v>
       </c>
+      <c r="E8" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -12129,6 +12833,12 @@
       <c r="C9" t="s">
         <v>832</v>
       </c>
+      <c r="E9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1648</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -12153,6 +12863,12 @@
       <c r="C12" t="s">
         <v>832</v>
       </c>
+      <c r="E12" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1649</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -12161,6 +12877,12 @@
       <c r="C13" t="s">
         <v>832</v>
       </c>
+      <c r="E13" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1650</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -12169,6 +12891,12 @@
       <c r="C14" t="s">
         <v>832</v>
       </c>
+      <c r="E14" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1651</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -12177,6 +12905,12 @@
       <c r="C15" t="s">
         <v>832</v>
       </c>
+      <c r="E15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -12185,400 +12919,1352 @@
       <c r="C16" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1672</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>1551</v>
       </c>
       <c r="C17" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>1673</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>1552</v>
       </c>
       <c r="C18" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1654</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1553</v>
+        <v>1681</v>
       </c>
       <c r="C19" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C20" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="C21" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C22" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>1675</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C23" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1676</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>1558</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>1559</v>
       </c>
       <c r="C25" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>1678</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="C26" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="C27" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>1680</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>990</v>
       </c>
       <c r="C29" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="C30" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C31" t="s">
         <v>1563</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
+        <v>1701</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>1564</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>1565</v>
       </c>
-      <c r="C32" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>1566</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>1567</v>
       </c>
       <c r="C34" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>1703</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="C35" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>1569</v>
       </c>
-      <c r="C36" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>1570</v>
       </c>
-      <c r="C37" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>1571</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>1572</v>
       </c>
       <c r="C39" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>1708</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C40" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>1572</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C41" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1709</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>1575</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>1576</v>
       </c>
       <c r="C43" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>1710</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>1577</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>1578</v>
       </c>
       <c r="C45" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>1716</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="C46" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C47" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>1712</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>1581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>1582</v>
       </c>
       <c r="C49" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>1713</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E51" t="s">
+        <v>954</v>
+      </c>
+      <c r="G51" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>1583</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="E52" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="E53" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="E54" t="s">
+        <v>1718</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="E55" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>1587</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="E57" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>966</v>
       </c>
       <c r="B60" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1736</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>1590</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>1591</v>
       </c>
       <c r="C61" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>1592</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>1593</v>
       </c>
       <c r="C63" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="E65" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
         <v>1595</v>
       </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="E66" t="s">
+        <v>1742</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>1596</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>1597</v>
       </c>
       <c r="C67" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="C68" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="C69" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>1743</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1744</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>1600</v>
       </c>
-      <c r="C70" t="s">
-        <v>1564</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="E72" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>1601</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>1602</v>
       </c>
       <c r="C73" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>1746</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="C74" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>1747</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C75" t="s">
         <v>832</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C76" t="s">
+        <v>832</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1749</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C77" t="s">
+        <v>845</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C79" t="s">
+        <v>832</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C81" t="s">
+        <v>832</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1753</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C82" t="s">
+        <v>832</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C83" t="s">
+        <v>832</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1755</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C84" t="s">
+        <v>832</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C85" t="s">
+        <v>832</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C86" t="s">
+        <v>832</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C89" t="s">
+        <v>849</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1760</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C91" t="s">
+        <v>845</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1762</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C92" t="s">
+        <v>862</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C93" t="s">
+        <v>862</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C94" t="s">
+        <v>862</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1765</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C96" t="s">
+        <v>849</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C97" t="s">
+        <v>849</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>990</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1768</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1769</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1770</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C105" t="s">
+        <v>845</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C108" t="s">
+        <v>845</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1779</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1780</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>840</v>
+      </c>
+      <c r="E120" t="s">
+        <v>889</v>
+      </c>
+      <c r="G120" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1782</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1785</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1786</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1825</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/Boat.xlsx
+++ b/DOC/Boat.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSD\DOC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3ABA9-9491-470A-B2BB-F282E6AB5EA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="меню" sheetId="1" r:id="rId1"/>
     <sheet name="artikel" sheetId="2" r:id="rId2"/>
     <sheet name="fahrzeug" sheetId="3" r:id="rId3"/>
     <sheet name="kunden" sheetId="4" r:id="rId4"/>
+    <sheet name="Lieferanten" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="1950">
   <si>
     <t xml:space="preserve">Немецкий </t>
   </si>
@@ -5520,11 +5515,383 @@
   <si>
     <t>отношения</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Suchbegr</t>
+  </si>
+  <si>
+    <t>Ort</t>
+  </si>
+  <si>
+    <t>telefon</t>
+  </si>
+  <si>
+    <t>Handy Nr.</t>
+  </si>
+  <si>
+    <t>Ansprechp.</t>
+  </si>
+  <si>
+    <t>eindeutige Artikel EAN</t>
+  </si>
+  <si>
+    <t>wieteres</t>
+  </si>
+  <si>
+    <t>wiedervorlage</t>
+  </si>
+  <si>
+    <t>ihre kunden Nr.</t>
+  </si>
+  <si>
+    <t>Vorkennung Art. Nr.</t>
+  </si>
+  <si>
+    <t>rittlief</t>
+  </si>
+  <si>
+    <t>versch. Best.Arten</t>
+  </si>
+  <si>
+    <t>Vorgabe Bestellart</t>
+  </si>
+  <si>
+    <t>Garantie Preis Basis</t>
+  </si>
+  <si>
+    <t>Aufschl.</t>
+  </si>
+  <si>
+    <t>Garant. Autom. Best.</t>
+  </si>
+  <si>
+    <t>Gar.teile mit EK=0</t>
+  </si>
+  <si>
+    <t>Kreditoren Kto</t>
+  </si>
+  <si>
+    <t>DebitorenNr.</t>
+  </si>
+  <si>
+    <t>Lieferzeit/Tage</t>
+  </si>
+  <si>
+    <t>Mindestbest.wert</t>
+  </si>
+  <si>
+    <t>Grössentab.</t>
+  </si>
+  <si>
+    <t>Transfernummer</t>
+  </si>
+  <si>
+    <t>Ansprechpartner</t>
+  </si>
+  <si>
+    <t>online zugang</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit</t>
+  </si>
+  <si>
+    <t>zugangsname</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Einzugserm</t>
+  </si>
+  <si>
+    <t>Zuahlungsziel</t>
+  </si>
+  <si>
+    <t>Tage</t>
+  </si>
+  <si>
+    <t>Gläubiger-Id</t>
+  </si>
+  <si>
+    <t>MandatsReferenz</t>
+  </si>
+  <si>
+    <t>austellungdatum</t>
+  </si>
+  <si>
+    <t>Sepa typ</t>
+  </si>
+  <si>
+    <t>kein</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>firmen</t>
+  </si>
+  <si>
+    <t>wiederkehrend</t>
+  </si>
+  <si>
+    <t>Bankverbindung</t>
+  </si>
+  <si>
+    <t>Weitere Passwörter</t>
+  </si>
+  <si>
+    <t>Zugang</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Поиск</t>
+  </si>
+  <si>
+    <t>место</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Номер мобильного телефона.</t>
+  </si>
+  <si>
+    <t>уникальный артикул EAN</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Mobile phone number.</t>
+  </si>
+  <si>
+    <t>Contact person</t>
+  </si>
+  <si>
+    <t>unique article EAN</t>
+  </si>
+  <si>
+    <t>further</t>
+  </si>
+  <si>
+    <t>follow-up</t>
+  </si>
+  <si>
+    <t>your customer number.</t>
+  </si>
+  <si>
+    <t>Pre-identification Art. No.</t>
+  </si>
+  <si>
+    <t>rode</t>
+  </si>
+  <si>
+    <t>different order types</t>
+  </si>
+  <si>
+    <t>Default order type</t>
+  </si>
+  <si>
+    <t>Guarantee price basis</t>
+  </si>
+  <si>
+    <t>Surcharge</t>
+  </si>
+  <si>
+    <t>Guarantor. Autom. Order</t>
+  </si>
+  <si>
+    <t>Cooking parts with EK = 0</t>
+  </si>
+  <si>
+    <t>Accounts payable</t>
+  </si>
+  <si>
+    <t>Debtor No.</t>
+  </si>
+  <si>
+    <t>Delivery time / days</t>
+  </si>
+  <si>
+    <t>Minimum order value</t>
+  </si>
+  <si>
+    <t>Size tab.</t>
+  </si>
+  <si>
+    <t>Transfer number</t>
+  </si>
+  <si>
+    <t>дальше</t>
+  </si>
+  <si>
+    <t>следовать за</t>
+  </si>
+  <si>
+    <t>ваш номер клиента.</t>
+  </si>
+  <si>
+    <t>Предварительная идентификация Арт.</t>
+  </si>
+  <si>
+    <t>ехал</t>
+  </si>
+  <si>
+    <t>разные типы заказов</t>
+  </si>
+  <si>
+    <t>Тип ордера по умолчанию</t>
+  </si>
+  <si>
+    <t>Базовая цена гарантии</t>
+  </si>
+  <si>
+    <t>Доплата</t>
+  </si>
+  <si>
+    <t>Гарант. Автомат. Заказ</t>
+  </si>
+  <si>
+    <t>Части приготовления с EK = 0</t>
+  </si>
+  <si>
+    <t>Кредиторская задолженность</t>
+  </si>
+  <si>
+    <t>Нет должника</t>
+  </si>
+  <si>
+    <t>Срок доставки / дней</t>
+  </si>
+  <si>
+    <t>Минимальная сумма заказа</t>
+  </si>
+  <si>
+    <t>Вкладка Размер.</t>
+  </si>
+  <si>
+    <t>Номер перевода</t>
+  </si>
+  <si>
+    <t>Internet access</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>access name</t>
+  </si>
+  <si>
+    <t>Bank details</t>
+  </si>
+  <si>
+    <t>Collection term</t>
+  </si>
+  <si>
+    <t>Payment target</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Creditor Id</t>
+  </si>
+  <si>
+    <t>Mandate reference</t>
+  </si>
+  <si>
+    <t>issue date</t>
+  </si>
+  <si>
+    <t>Sepa type</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>recurring</t>
+  </si>
+  <si>
+    <t>More passwords</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>доступ в Интернет</t>
+  </si>
+  <si>
+    <t>Доступность</t>
+  </si>
+  <si>
+    <t>имя доступа</t>
+  </si>
+  <si>
+    <t>пароль</t>
+  </si>
+  <si>
+    <t>Реквизиты банка</t>
+  </si>
+  <si>
+    <t>Срок сбора</t>
+  </si>
+  <si>
+    <t>Цель платежа</t>
+  </si>
+  <si>
+    <t>Дней</t>
+  </si>
+  <si>
+    <t>Идентификатор кредитора</t>
+  </si>
+  <si>
+    <t>Ссылка на мандат</t>
+  </si>
+  <si>
+    <t>Тип сепа</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Основание</t>
+  </si>
+  <si>
+    <t>компании</t>
+  </si>
+  <si>
+    <t>повторяющийся</t>
+  </si>
+  <si>
+    <t>Еще пароли</t>
+  </si>
+  <si>
+    <t>Доступ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5900,14 +6267,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView topLeftCell="A169" workbookViewId="0">
@@ -8974,7 +9341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -10391,7 +10758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12700,12 +13067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130:G131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14270,4 +14637,776 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54:E59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>965</v>
+      </c>
+      <c r="B2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1875</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1876</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C5" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1878</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C7" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C8" t="s">
+        <v>832</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1879</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C9" t="s">
+        <v>832</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1881</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1882</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C14" t="s">
+        <v>832</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1884</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1702</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C16" t="s">
+        <v>832</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C19" t="s">
+        <v>832</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C20" t="s">
+        <v>832</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1889</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C21" t="s">
+        <v>849</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1891</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1844</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1845</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1894</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C26" t="s">
+        <v>849</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1895</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C27" t="s">
+        <v>849</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C29" t="s">
+        <v>849</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1717</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>966</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C35" t="s">
+        <v>832</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C36" t="s">
+        <v>832</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C37" t="s">
+        <v>832</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C39" t="s">
+        <v>832</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C41" t="s">
+        <v>849</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1857</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C43" t="s">
+        <v>832</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C44" t="s">
+        <v>832</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C45" t="s">
+        <v>845</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C47" t="s">
+        <v>862</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C48" t="s">
+        <v>862</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C49" t="s">
+        <v>862</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1929</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C50" t="s">
+        <v>862</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1867</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1931</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C52" t="s">
+        <v>832</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1932</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>